--- a/src/dams_mcda/www/DecisionMatrices_updated.xlsx
+++ b/src/dams_mcda/www/DecisionMatrices_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma\Documents\R_ELF\R_NEST\MCDA_App_Shiny\MCDA_11042019\src\dams_mcda\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF755E4E-3B38-49E6-BFBB-D55296E210C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E21E4E-80AC-410C-A0B3-0930BBF2414B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="3348" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10644" yWindow="516" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="10" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Medway" sheetId="4" r:id="rId3"/>
     <sheet name="East Millinocket" sheetId="6" r:id="rId4"/>
     <sheet name="Dolby" sheetId="8" r:id="rId5"/>
-    <sheet name="MillinocketQuakish" sheetId="5" r:id="rId6"/>
-    <sheet name="North Twin" sheetId="7" r:id="rId7"/>
+    <sheet name="North Twin" sheetId="7" r:id="rId6"/>
+    <sheet name="MillinocketQuakish" sheetId="5" r:id="rId7"/>
     <sheet name="Millinocket Lake" sheetId="9" r:id="rId8"/>
     <sheet name="Ripogenus" sheetId="2" r:id="rId9"/>
     <sheet name="METADATA" sheetId="1" r:id="rId10"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="169">
   <si>
     <t>Variable</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Industrial Historical Value</t>
   </si>
   <si>
-    <t>Community Identity</t>
-  </si>
-  <si>
     <t>p.24</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Annuitized Cost Improve Hydro = CAPEX Hydro*((0.062)*(1+0.062)^20)/(((1+0.062)^20)-1)+O&amp;M</t>
   </si>
   <si>
-    <t>Annuitized cost - annual cost of the project over its lifetime. Here, annual cost of improving hydropower generation at a project (equation comes from NREL, 1995 report), assumes a 20-year lifetime and 6.2% discount rate (O'Connor et al. 2015).</t>
-  </si>
-  <si>
     <t>https://www.nrel.gov/docs/legosti/old/5173.pdf</t>
   </si>
   <si>
@@ -212,12 +206,6 @@
   </si>
   <si>
     <t>Annuitized Cost for Improve Fish</t>
-  </si>
-  <si>
-    <t>Annuitized Cost Improve Fish = CAPEX Fish*((0.062)*(1+0.062)^20)/(((1+0.062)^20)-1)+O&amp;M</t>
-  </si>
-  <si>
-    <t>Annuitized cost - annual cost of the project over its lifetime. Here, annual cost of improving fish passage at a project (equation comes from NREL, 1995 report), assumes a 20-year lifetime and 6.2% discount rate (O'Connor et al. 2015).</t>
   </si>
   <si>
     <t>p.14</t>
@@ -278,9 +266,6 @@
   </si>
   <si>
     <t>Rating to convey the importance of the dam for preserving/restoring the industrial historical value of the infrastructure.</t>
-  </si>
-  <si>
-    <t>Rating to convey the importance of the dam for preserving the existing community identity for residents living along or on islands within the river.</t>
   </si>
   <si>
     <t>Rating to convey the importance of improving or preserving aesthetics (e.g., appearance, scenic value, smell, sound) at the dam</t>
@@ -409,9 +394,6 @@
     <t>It was developed by Emma Fox, Sharon Klein, and Samuel Roy of UMaine, with input from stakeholders and collaborators active in dam decision-making in Maine.</t>
   </si>
   <si>
-    <t>This is a DRAFT set of decision criteria, alternatives, and associated data developed for a participatory MCDA workshop in Fall 2019.</t>
-  </si>
-  <si>
     <t>Decision Criterion or Input to Calculation</t>
   </si>
   <si>
@@ -434,12 +416,6 @@
   </si>
   <si>
     <t>metric kilotonnes</t>
-  </si>
-  <si>
-    <t>Annuitized cost - annual cost of a project over its lifetime. Here, we use the sum of annuitized capital cost for improved hydro and fish passage  plus O&amp;M.</t>
-  </si>
-  <si>
-    <t>Annuitized Cost Fish &amp; Hydro = Annuitized Capital Cost for Improve Fish Passage + Annuitized Capital Cost for Improve Hydro+O&amp;M</t>
   </si>
   <si>
     <t xml:space="preserve">Electricity Generation </t>
@@ -556,9 +532,6 @@
     <t>Average annual electricity generation - gigawatthours of electricity generated annually at a particular dam site, averaged from 2015 - 2018 (Brookfield report to FERC). For Penobscot Mills sites</t>
   </si>
   <si>
-    <t>Rating to convey the importance of preserving/restoring the culture and practices of indigenous people at the dam site.</t>
-  </si>
-  <si>
     <t>CAPEX Remove=(30557*h)+(1375*l)+ e</t>
   </si>
   <si>
@@ -599,6 +572,45 @@
       </rPr>
       <t xml:space="preserve"> refers to length at the specific dam site. Reported in Roy et al. (2018) supplementary materials. </t>
     </r>
+  </si>
+  <si>
+    <t>Town/City Identity</t>
+  </si>
+  <si>
+    <t>Rating to convey the importance of the dam for preserving the existing town/city identity for residents living along the river.</t>
+  </si>
+  <si>
+    <t>Rating to convey the importance of preserving or restoring the culture and practices of indigenous people at the dam site.</t>
+  </si>
+  <si>
+    <t>This is a set of decision criteria, decision alternatives, and associated data developed for the following Maine dams: West Enfield, Medway, East Millinocket, Dolby, North Twin, Millinocket/Quakish, Millinocket Lake, and Ripogenus.</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Annuitized Cost Improve Fish =(CAPEX Fish+((1300000*Capacity)^0.56))*((0.062)*(1+0.062)^20)/(((1+0.062)^20)-1)+O&amp;M</t>
+  </si>
+  <si>
+    <t>Annuitized Cost Fish &amp; Hydro = ((CAPEX Fish+CAPEX Hydro)+((1300000*Capacity)^0.56))*((0.062)*(1+0.062)^20)/(((1+0.062)^20)-1)+O&amp;M</t>
+  </si>
+  <si>
+    <t>Annuitized cost - annual cost of a project over its lifetime. Here, we use the sum of  capital cost for improved hydro and fish passage,  assuming a 20-year lifetime and 6.2% discount rate (O'Connor et al. 2015) and including an annuitization of the 30-year lifetime cost of fish passage mitigation for threatened and endangered species (Hall et al., 2003),  plus O&amp;M.</t>
+  </si>
+  <si>
+    <t>Annuitized cost - annual cost of the project over its lifetime. Here, annual cost of improving hydropower generation at a project (equation comes from NREL, 1995 report), assumes a 20-year lifetime and 6.2% discount rate (O'Connor et al. 2015), plus O&amp;M</t>
+  </si>
+  <si>
+    <t>Annuitized cost - annual cost of the project over its lifetime. Here, annual cost of improving fish passage at a project (equation comes from NREL, 1995 report), assumes a 20-year lifetime and 6.2% discount rate (O'Connor et al. 2015), and includes an annuitization of the 30-year lifetime cost of fish passage mitigation for threatened and endangered species (Hall et al., 2003), plus O&amp;M.</t>
+  </si>
+  <si>
+    <t>*1 GW = 1000 MW, so to convert from GW to MW, multiply the value by 1,000. To convert from MW to GW, divide by 1,000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> °Indigenous cultural traditions and lifeways data come from a survey of a sample of Penobscot Nation citizens (N=2), supported by  informal conversations with Penobscot Nation citizens and representatives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> †Cells are blank because we do not have data for these decision criteria. </t>
   </si>
 </sst>
 </file>
@@ -715,7 +727,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,12 +738,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1022,9 +1028,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1039,9 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1061,6 +1061,10 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1705,31 +1709,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="76" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1740,8 +1770,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1808,14 +1838,14 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D2"/>
       <c r="E2" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>16</v>
@@ -1856,11 +1886,11 @@
         <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>16</v>
@@ -1898,14 +1928,14 @@
         <v>32</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D4"/>
       <c r="E4" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>16</v>
@@ -1943,10 +1973,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>36</v>
@@ -1958,13 +1988,13 @@
         <v>38</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1987,31 +2017,31 @@
     </row>
     <row r="6" spans="1:27" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -2032,33 +2062,33 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="I7" s="31" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -2079,24 +2109,24 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>21</v>
@@ -2105,7 +2135,7 @@
         <v>38</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -2128,31 +2158,31 @@
     </row>
     <row r="9" spans="1:27" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2178,26 +2208,26 @@
         <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D10"/>
       <c r="E10" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -2220,23 +2250,23 @@
     </row>
     <row r="11" spans="1:27" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>21</v>
@@ -2265,22 +2295,22 @@
     </row>
     <row r="12" spans="1:27" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>21</v>
@@ -2310,22 +2340,22 @@
     </row>
     <row r="13" spans="1:27" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>21</v>
@@ -2357,22 +2387,22 @@
     </row>
     <row r="14" spans="1:27" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>21</v>
@@ -2381,7 +2411,7 @@
         <v>21</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2407,19 +2437,19 @@
         <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>21</v>
@@ -2428,7 +2458,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -2451,22 +2481,22 @@
     </row>
     <row r="16" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>70</v>
+      <c r="E16" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>21</v>
@@ -2475,7 +2505,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2498,22 +2528,22 @@
     </row>
     <row r="17" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>21</v>
@@ -2522,7 +2552,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2545,31 +2575,31 @@
     </row>
     <row r="18" spans="1:27" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="36" t="s">
         <v>72</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>77</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
@@ -2592,19 +2622,19 @@
     </row>
     <row r="19" spans="1:27" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>16</v>
@@ -2616,7 +2646,7 @@
         <v>21</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
@@ -2639,31 +2669,31 @@
     </row>
     <row r="20" spans="1:27" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2686,31 +2716,31 @@
     </row>
     <row r="21" spans="1:27" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -2733,19 +2763,19 @@
     </row>
     <row r="22" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>21</v>
@@ -2757,7 +2787,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2780,31 +2810,31 @@
     </row>
     <row r="23" spans="1:27" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -2827,31 +2857,31 @@
     </row>
     <row r="24" spans="1:27" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -2874,28 +2904,28 @@
     </row>
     <row r="25" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I25" s="26" t="s">
         <v>21</v>
@@ -2921,25 +2951,25 @@
     </row>
     <row r="26" spans="1:27" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>21</v>
@@ -31408,12 +31438,12 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8:F8"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="52" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" style="52" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="47" customWidth="1"/>
     <col min="3" max="3" width="13" style="47" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" style="47" customWidth="1"/>
@@ -31509,7 +31539,7 @@
         <v>11.7</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -31532,23 +31562,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="66">
+    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="65">
         <v>933</v>
       </c>
-      <c r="C5" s="63">
-        <v>2711</v>
-      </c>
-      <c r="D5" s="66">
+      <c r="C5" s="65">
+        <v>2758</v>
+      </c>
+      <c r="D5" s="65">
         <v>1145</v>
       </c>
-      <c r="E5" s="63">
-        <v>2770</v>
-      </c>
-      <c r="F5" s="66">
+      <c r="E5" s="65">
+        <v>2817</v>
+      </c>
+      <c r="F5" s="65">
         <v>247</v>
       </c>
     </row>
@@ -31593,52 +31623,52 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>93</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="64">
         <v>93</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="64">
         <v>93</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="64">
         <v>93</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="64">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="71" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:26" s="69" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="70">
         <f>18129/1000</f>
         <v>18.129000000000001</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="70">
         <f t="shared" ref="C9:E9" si="0">18129/1000</f>
         <v>18.129000000000001</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="70">
         <f t="shared" si="0"/>
         <v>18.129000000000001</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="70">
         <f t="shared" si="0"/>
         <v>18.129000000000001</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -31658,7 +31688,7 @@
     </row>
     <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B11" s="62">
         <v>0</v>
@@ -31678,7 +31708,7 @@
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B12" s="62">
         <v>0</v>
@@ -31698,7 +31728,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B13" s="62">
         <v>0</v>
@@ -31718,7 +31748,7 @@
     </row>
     <row r="14" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
@@ -32716,12 +32746,12 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F9"/>
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" style="47" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="47" customWidth="1"/>
     <col min="3" max="3" width="13" style="47" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" style="47" customWidth="1"/>
@@ -32817,7 +32847,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -32840,23 +32870,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="66">
+    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="65">
         <v>451</v>
       </c>
-      <c r="C5" s="63">
-        <v>1278</v>
-      </c>
-      <c r="D5" s="66">
+      <c r="C5" s="65">
+        <v>1301</v>
+      </c>
+      <c r="D5" s="65">
         <v>1212</v>
       </c>
-      <c r="E5" s="63">
-        <v>1979</v>
-      </c>
-      <c r="F5" s="66">
+      <c r="E5" s="65">
+        <v>2001</v>
+      </c>
+      <c r="F5" s="65">
         <v>221</v>
       </c>
     </row>
@@ -32901,52 +32931,52 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>29</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="64">
         <v>29</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="64">
         <v>50</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="64">
         <v>50</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="71">
         <f>5725/1000</f>
         <v>5.7249999999999996</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="71">
         <f>5725/1000</f>
         <v>5.7249999999999996</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="71">
         <f>9819/1000</f>
         <v>9.8190000000000008</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="71">
         <f>9819/1000</f>
         <v>9.8190000000000008</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -32966,7 +32996,7 @@
     </row>
     <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B11" s="62">
         <v>0</v>
@@ -32986,7 +33016,7 @@
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B12" s="62">
         <v>0</v>
@@ -33006,7 +33036,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B13" s="62">
         <v>0</v>
@@ -33026,7 +33056,7 @@
     </row>
     <row r="14" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
@@ -35976,12 +36006,12 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="42.77734375" style="47" customWidth="1"/>
     <col min="2" max="2" width="14.109375" style="47" customWidth="1"/>
     <col min="3" max="3" width="13" style="47" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" style="47" customWidth="1"/>
@@ -36048,16 +36078,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D2" s="51">
         <v>0</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
@@ -36077,7 +36107,7 @@
         <v>0.29859999999999998</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -36100,23 +36130,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="66">
+    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="65">
         <v>662</v>
       </c>
-      <c r="C5" s="63">
-        <v>1900</v>
-      </c>
-      <c r="D5" s="66">
+      <c r="C5" s="65">
+        <v>1932</v>
+      </c>
+      <c r="D5" s="65">
         <v>1767</v>
       </c>
-      <c r="E5" s="63">
-        <v>2907</v>
-      </c>
-      <c r="F5" s="66">
+      <c r="E5" s="65">
+        <v>2940</v>
+      </c>
+      <c r="F5" s="65">
         <v>232</v>
       </c>
     </row>
@@ -36160,49 +36190,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="71" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:26" s="69" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>38</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="64">
         <v>38</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="64">
         <v>56</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="64">
         <v>56</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="65">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="71" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:26" s="69" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="71">
         <v>7.4</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="71">
         <v>7.4</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="66">
         <v>10.9</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="66">
         <v>10.9</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -36222,7 +36252,7 @@
     </row>
     <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B11" s="62">
         <v>0</v>
@@ -36242,7 +36272,7 @@
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B12" s="62">
         <v>0</v>
@@ -36262,7 +36292,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B13" s="62">
         <v>0</v>
@@ -36282,7 +36312,7 @@
     </row>
     <row r="14" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
@@ -39232,7 +39262,7 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -39304,16 +39334,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D2" s="51">
         <v>0</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
@@ -39333,7 +39363,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -39361,22 +39391,22 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="66">
+      <c r="A5" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="65">
         <v>1209</v>
       </c>
-      <c r="C5" s="63">
-        <v>3544</v>
-      </c>
-      <c r="D5" s="66">
+      <c r="C5" s="65">
+        <v>3606</v>
+      </c>
+      <c r="D5" s="65">
         <v>1503</v>
       </c>
-      <c r="E5" s="63">
-        <v>3627</v>
-      </c>
-      <c r="F5" s="66">
+      <c r="E5" s="65">
+        <v>3689</v>
+      </c>
+      <c r="F5" s="65">
         <v>441</v>
       </c>
     </row>
@@ -39420,49 +39450,49 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="71" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:26" s="69" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="65">
         <v>98.1</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="65">
         <v>98.1</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="65">
         <v>98.1</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="65">
         <v>98.1</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="65">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="71" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:26" s="69" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="72">
         <v>19</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="72">
         <v>19</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="72">
         <v>19</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="72">
         <v>19</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -39482,7 +39512,7 @@
     </row>
     <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B11" s="62">
         <v>0</v>
@@ -39502,7 +39532,7 @@
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B12" s="62">
         <v>0</v>
@@ -39522,7 +39552,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B13" s="62">
         <v>0</v>
@@ -39542,7 +39572,7 @@
     </row>
     <row r="14" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
@@ -42488,11 +42518,3271 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:Z990"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="47" customWidth="1"/>
+    <col min="3" max="3" width="13" style="47" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="13" style="47" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="47" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="47" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="47" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="47" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="47" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="47" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" style="47" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="47" customWidth="1"/>
+    <col min="15" max="15" width="18" style="47" customWidth="1"/>
+    <col min="16" max="26" width="8.6640625" style="47" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="49">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="51">
+        <v>0</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="49">
+        <v>1.57</v>
+      </c>
+      <c r="C3" s="49">
+        <v>1.57</v>
+      </c>
+      <c r="D3" s="49">
+        <v>1.57</v>
+      </c>
+      <c r="E3" s="49">
+        <v>1.57</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="53">
+        <f t="shared" ref="B4:E4" si="0">21456/100000</f>
+        <v>0.21456</v>
+      </c>
+      <c r="C4" s="53">
+        <f t="shared" si="0"/>
+        <v>0.21456</v>
+      </c>
+      <c r="D4" s="53">
+        <f t="shared" si="0"/>
+        <v>0.21456</v>
+      </c>
+      <c r="E4" s="53">
+        <f t="shared" si="0"/>
+        <v>0.21456</v>
+      </c>
+      <c r="F4" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="65">
+        <v>664</v>
+      </c>
+      <c r="C5" s="65">
+        <v>1939</v>
+      </c>
+      <c r="D5" s="65">
+        <v>1762</v>
+      </c>
+      <c r="E5" s="65">
+        <v>2938</v>
+      </c>
+      <c r="F5" s="65">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="49">
+        <v>1</v>
+      </c>
+      <c r="C6" s="49">
+        <v>1</v>
+      </c>
+      <c r="D6" s="49">
+        <v>1</v>
+      </c>
+      <c r="E6" s="49">
+        <v>1</v>
+      </c>
+      <c r="F6" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="49">
+        <v>0</v>
+      </c>
+      <c r="C7" s="49">
+        <v>0</v>
+      </c>
+      <c r="D7" s="49">
+        <v>0</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0</v>
+      </c>
+      <c r="F7" s="49">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="69" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="64">
+        <v>47</v>
+      </c>
+      <c r="C8" s="64">
+        <v>47</v>
+      </c>
+      <c r="D8" s="64">
+        <v>65</v>
+      </c>
+      <c r="E8" s="64">
+        <v>65</v>
+      </c>
+      <c r="F8" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="69" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="66">
+        <v>6.7</v>
+      </c>
+      <c r="C9" s="66">
+        <v>6.7</v>
+      </c>
+      <c r="D9" s="66">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E9" s="66">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F9" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="51">
+        <v>1</v>
+      </c>
+      <c r="C10" s="51">
+        <v>3</v>
+      </c>
+      <c r="D10" s="51">
+        <v>1</v>
+      </c>
+      <c r="E10" s="51">
+        <v>2</v>
+      </c>
+      <c r="F10" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="62">
+        <v>0</v>
+      </c>
+      <c r="C11" s="62">
+        <v>0</v>
+      </c>
+      <c r="D11" s="62">
+        <v>0</v>
+      </c>
+      <c r="E11" s="62">
+        <v>0</v>
+      </c>
+      <c r="F11" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="62">
+        <v>0</v>
+      </c>
+      <c r="C12" s="62">
+        <v>0</v>
+      </c>
+      <c r="D12" s="62">
+        <v>0</v>
+      </c>
+      <c r="E12" s="62">
+        <v>0</v>
+      </c>
+      <c r="F12" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="62">
+        <v>0</v>
+      </c>
+      <c r="C13" s="62">
+        <v>0</v>
+      </c>
+      <c r="D13" s="62">
+        <v>0</v>
+      </c>
+      <c r="E13" s="62">
+        <v>0</v>
+      </c>
+      <c r="F13" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="52"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="52"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="52"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="52"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="52"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="52"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="52"/>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="52"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52"/>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="52"/>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="52"/>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="52"/>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="52"/>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="52"/>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="52"/>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="52"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="52"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="52"/>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="52"/>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="52"/>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="52"/>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="52"/>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="52"/>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="52"/>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="52"/>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="52"/>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="52"/>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="52"/>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="52"/>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="52"/>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="52"/>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="52"/>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="52"/>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="52"/>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="52"/>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="52"/>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="52"/>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="52"/>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="52"/>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="52"/>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="52"/>
+    </row>
+    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="52"/>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="52"/>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="52"/>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52"/>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="52"/>
+    </row>
+    <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="52"/>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="52"/>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="52"/>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="52"/>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="52"/>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="52"/>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="52"/>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="52"/>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="52"/>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="52"/>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="52"/>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="52"/>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="52"/>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="52"/>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="52"/>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="52"/>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="52"/>
+    </row>
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="52"/>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="52"/>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="52"/>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="52"/>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="52"/>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="52"/>
+    </row>
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="52"/>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="52"/>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="52"/>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="52"/>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="52"/>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="52"/>
+    </row>
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="52"/>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="52"/>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="52"/>
+    </row>
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="52"/>
+    </row>
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="52"/>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="52"/>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="52"/>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="52"/>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="52"/>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="52"/>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="52"/>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="52"/>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="52"/>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="52"/>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="52"/>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="52"/>
+    </row>
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="52"/>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="52"/>
+    </row>
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="52"/>
+    </row>
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="52"/>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="52"/>
+    </row>
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="52"/>
+    </row>
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="52"/>
+    </row>
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="52"/>
+    </row>
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="52"/>
+    </row>
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="52"/>
+    </row>
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="52"/>
+    </row>
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="52"/>
+    </row>
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="52"/>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="52"/>
+    </row>
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="52"/>
+    </row>
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="52"/>
+    </row>
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="52"/>
+    </row>
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="52"/>
+    </row>
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="52"/>
+    </row>
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="52"/>
+    </row>
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="52"/>
+    </row>
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="52"/>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="52"/>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="52"/>
+    </row>
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="52"/>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="52"/>
+    </row>
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="52"/>
+    </row>
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="52"/>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="52"/>
+    </row>
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="52"/>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="52"/>
+    </row>
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="52"/>
+    </row>
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="52"/>
+    </row>
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="52"/>
+    </row>
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="52"/>
+    </row>
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="52"/>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="52"/>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="52"/>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="52"/>
+    </row>
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="52"/>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="52"/>
+    </row>
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="52"/>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="52"/>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="52"/>
+    </row>
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="52"/>
+    </row>
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="52"/>
+    </row>
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="52"/>
+    </row>
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="52"/>
+    </row>
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="52"/>
+    </row>
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="52"/>
+    </row>
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="52"/>
+    </row>
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="52"/>
+    </row>
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="52"/>
+    </row>
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="52"/>
+    </row>
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="52"/>
+    </row>
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="52"/>
+    </row>
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="52"/>
+    </row>
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="52"/>
+    </row>
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="52"/>
+    </row>
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="52"/>
+    </row>
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="52"/>
+    </row>
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="52"/>
+    </row>
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="52"/>
+    </row>
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="52"/>
+    </row>
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="52"/>
+    </row>
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="52"/>
+    </row>
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="52"/>
+    </row>
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="52"/>
+    </row>
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="52"/>
+    </row>
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="52"/>
+    </row>
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="52"/>
+    </row>
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="52"/>
+    </row>
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="52"/>
+    </row>
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="52"/>
+    </row>
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="52"/>
+    </row>
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="52"/>
+    </row>
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="52"/>
+    </row>
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="52"/>
+    </row>
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="52"/>
+    </row>
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="52"/>
+    </row>
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="52"/>
+    </row>
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="52"/>
+    </row>
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="52"/>
+    </row>
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="52"/>
+    </row>
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="52"/>
+    </row>
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="52"/>
+    </row>
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="52"/>
+    </row>
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="52"/>
+    </row>
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="52"/>
+    </row>
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="52"/>
+    </row>
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="52"/>
+    </row>
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="52"/>
+    </row>
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="52"/>
+    </row>
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="52"/>
+    </row>
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="52"/>
+    </row>
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="52"/>
+    </row>
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="52"/>
+    </row>
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="52"/>
+    </row>
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="52"/>
+    </row>
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="52"/>
+    </row>
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="52"/>
+    </row>
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="52"/>
+    </row>
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="52"/>
+    </row>
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="52"/>
+    </row>
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="52"/>
+    </row>
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="52"/>
+    </row>
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="52"/>
+    </row>
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="52"/>
+    </row>
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="52"/>
+    </row>
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="52"/>
+    </row>
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="52"/>
+    </row>
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="52"/>
+    </row>
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="52"/>
+    </row>
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="52"/>
+    </row>
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="52"/>
+    </row>
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="52"/>
+    </row>
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="52"/>
+    </row>
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="52"/>
+    </row>
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="52"/>
+    </row>
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="52"/>
+    </row>
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="52"/>
+    </row>
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="52"/>
+    </row>
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="52"/>
+    </row>
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="52"/>
+    </row>
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="52"/>
+    </row>
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="52"/>
+    </row>
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="52"/>
+    </row>
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="52"/>
+    </row>
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="52"/>
+    </row>
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="52"/>
+    </row>
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="52"/>
+    </row>
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="52"/>
+    </row>
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="52"/>
+    </row>
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="52"/>
+    </row>
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="52"/>
+    </row>
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="52"/>
+    </row>
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="52"/>
+    </row>
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="52"/>
+    </row>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="52"/>
+    </row>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="52"/>
+    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="52"/>
+    </row>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="52"/>
+    </row>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="52"/>
+    </row>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="52"/>
+    </row>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="52"/>
+    </row>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="52"/>
+    </row>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="52"/>
+    </row>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="52"/>
+    </row>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="52"/>
+    </row>
+    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="52"/>
+    </row>
+    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="52"/>
+    </row>
+    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="52"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="52"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="52"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="52"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="52"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="52"/>
+    </row>
+    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="52"/>
+    </row>
+    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="52"/>
+    </row>
+    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="52"/>
+    </row>
+    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="52"/>
+    </row>
+    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="52"/>
+    </row>
+    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="52"/>
+    </row>
+    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="52"/>
+    </row>
+    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="52"/>
+    </row>
+    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="52"/>
+    </row>
+    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="52"/>
+    </row>
+    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="52"/>
+    </row>
+    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="52"/>
+    </row>
+    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="52"/>
+    </row>
+    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="52"/>
+    </row>
+    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="52"/>
+    </row>
+    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="52"/>
+    </row>
+    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="52"/>
+    </row>
+    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="52"/>
+    </row>
+    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="52"/>
+    </row>
+    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="52"/>
+    </row>
+    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="52"/>
+    </row>
+    <row r="286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="52"/>
+    </row>
+    <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="52"/>
+    </row>
+    <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="52"/>
+    </row>
+    <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="52"/>
+    </row>
+    <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="52"/>
+    </row>
+    <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="52"/>
+    </row>
+    <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="52"/>
+    </row>
+    <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="52"/>
+    </row>
+    <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="52"/>
+    </row>
+    <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="52"/>
+    </row>
+    <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="52"/>
+    </row>
+    <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="52"/>
+    </row>
+    <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="52"/>
+    </row>
+    <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="52"/>
+    </row>
+    <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="52"/>
+    </row>
+    <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="52"/>
+    </row>
+    <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="52"/>
+    </row>
+    <row r="303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="52"/>
+    </row>
+    <row r="304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="52"/>
+    </row>
+    <row r="305" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="52"/>
+    </row>
+    <row r="306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="52"/>
+    </row>
+    <row r="307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="52"/>
+    </row>
+    <row r="308" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="52"/>
+    </row>
+    <row r="309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="52"/>
+    </row>
+    <row r="310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="52"/>
+    </row>
+    <row r="311" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="52"/>
+    </row>
+    <row r="312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="52"/>
+    </row>
+    <row r="313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="52"/>
+    </row>
+    <row r="314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="52"/>
+    </row>
+    <row r="315" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="52"/>
+    </row>
+    <row r="316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="52"/>
+    </row>
+    <row r="317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="52"/>
+    </row>
+    <row r="318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="52"/>
+    </row>
+    <row r="319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="52"/>
+    </row>
+    <row r="320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="52"/>
+    </row>
+    <row r="321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="52"/>
+    </row>
+    <row r="322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="52"/>
+    </row>
+    <row r="323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="52"/>
+    </row>
+    <row r="324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="52"/>
+    </row>
+    <row r="325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="52"/>
+    </row>
+    <row r="326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="52"/>
+    </row>
+    <row r="327" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="52"/>
+    </row>
+    <row r="328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="52"/>
+    </row>
+    <row r="329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="52"/>
+    </row>
+    <row r="330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="52"/>
+    </row>
+    <row r="331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="52"/>
+    </row>
+    <row r="332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="52"/>
+    </row>
+    <row r="333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="52"/>
+    </row>
+    <row r="334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="52"/>
+    </row>
+    <row r="335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="52"/>
+    </row>
+    <row r="336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="52"/>
+    </row>
+    <row r="337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="52"/>
+    </row>
+    <row r="338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="52"/>
+    </row>
+    <row r="339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="52"/>
+    </row>
+    <row r="340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="52"/>
+    </row>
+    <row r="341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="52"/>
+    </row>
+    <row r="342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="52"/>
+    </row>
+    <row r="343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="52"/>
+    </row>
+    <row r="344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="52"/>
+    </row>
+    <row r="345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="52"/>
+    </row>
+    <row r="346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="52"/>
+    </row>
+    <row r="347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="52"/>
+    </row>
+    <row r="348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="52"/>
+    </row>
+    <row r="349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="52"/>
+    </row>
+    <row r="350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="52"/>
+    </row>
+    <row r="351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="52"/>
+    </row>
+    <row r="352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="52"/>
+    </row>
+    <row r="353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="52"/>
+    </row>
+    <row r="354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="52"/>
+    </row>
+    <row r="355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="52"/>
+    </row>
+    <row r="356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="52"/>
+    </row>
+    <row r="357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="52"/>
+    </row>
+    <row r="358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="52"/>
+    </row>
+    <row r="359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="52"/>
+    </row>
+    <row r="360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="52"/>
+    </row>
+    <row r="361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="52"/>
+    </row>
+    <row r="362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="52"/>
+    </row>
+    <row r="363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="52"/>
+    </row>
+    <row r="364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="52"/>
+    </row>
+    <row r="365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="52"/>
+    </row>
+    <row r="366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="52"/>
+    </row>
+    <row r="367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="52"/>
+    </row>
+    <row r="368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="52"/>
+    </row>
+    <row r="369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="52"/>
+    </row>
+    <row r="370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="52"/>
+    </row>
+    <row r="371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="52"/>
+    </row>
+    <row r="372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="52"/>
+    </row>
+    <row r="373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="52"/>
+    </row>
+    <row r="374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="52"/>
+    </row>
+    <row r="375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="52"/>
+    </row>
+    <row r="376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="52"/>
+    </row>
+    <row r="377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="52"/>
+    </row>
+    <row r="378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="52"/>
+    </row>
+    <row r="379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="52"/>
+    </row>
+    <row r="380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="52"/>
+    </row>
+    <row r="381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="52"/>
+    </row>
+    <row r="382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="52"/>
+    </row>
+    <row r="383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="52"/>
+    </row>
+    <row r="384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="52"/>
+    </row>
+    <row r="385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="52"/>
+    </row>
+    <row r="386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="52"/>
+    </row>
+    <row r="387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="52"/>
+    </row>
+    <row r="388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="52"/>
+    </row>
+    <row r="389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="52"/>
+    </row>
+    <row r="390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="52"/>
+    </row>
+    <row r="391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="52"/>
+    </row>
+    <row r="392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="52"/>
+    </row>
+    <row r="393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="52"/>
+    </row>
+    <row r="394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="52"/>
+    </row>
+    <row r="395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="52"/>
+    </row>
+    <row r="396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="52"/>
+    </row>
+    <row r="397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="52"/>
+    </row>
+    <row r="398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="52"/>
+    </row>
+    <row r="399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="52"/>
+    </row>
+    <row r="400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="52"/>
+    </row>
+    <row r="401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="52"/>
+    </row>
+    <row r="402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="52"/>
+    </row>
+    <row r="403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="52"/>
+    </row>
+    <row r="404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="52"/>
+    </row>
+    <row r="405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="52"/>
+    </row>
+    <row r="406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="52"/>
+    </row>
+    <row r="407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="52"/>
+    </row>
+    <row r="408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="52"/>
+    </row>
+    <row r="409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="52"/>
+    </row>
+    <row r="410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="52"/>
+    </row>
+    <row r="411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="52"/>
+    </row>
+    <row r="412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="52"/>
+    </row>
+    <row r="413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="52"/>
+    </row>
+    <row r="414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="52"/>
+    </row>
+    <row r="415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="52"/>
+    </row>
+    <row r="416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="52"/>
+    </row>
+    <row r="417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="52"/>
+    </row>
+    <row r="418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="52"/>
+    </row>
+    <row r="419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="52"/>
+    </row>
+    <row r="420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="52"/>
+    </row>
+    <row r="421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="52"/>
+    </row>
+    <row r="422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="52"/>
+    </row>
+    <row r="423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="52"/>
+    </row>
+    <row r="424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="52"/>
+    </row>
+    <row r="425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="52"/>
+    </row>
+    <row r="426" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="52"/>
+    </row>
+    <row r="427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="52"/>
+    </row>
+    <row r="428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="52"/>
+    </row>
+    <row r="429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="52"/>
+    </row>
+    <row r="430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="52"/>
+    </row>
+    <row r="431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="52"/>
+    </row>
+    <row r="432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="52"/>
+    </row>
+    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="52"/>
+    </row>
+    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="52"/>
+    </row>
+    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="52"/>
+    </row>
+    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="52"/>
+    </row>
+    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A437" s="52"/>
+    </row>
+    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="52"/>
+    </row>
+    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="52"/>
+    </row>
+    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="52"/>
+    </row>
+    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="52"/>
+    </row>
+    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="52"/>
+    </row>
+    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="52"/>
+    </row>
+    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="52"/>
+    </row>
+    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="52"/>
+    </row>
+    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="52"/>
+    </row>
+    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="52"/>
+    </row>
+    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="52"/>
+    </row>
+    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="52"/>
+    </row>
+    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="52"/>
+    </row>
+    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="52"/>
+    </row>
+    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A452" s="52"/>
+    </row>
+    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A453" s="52"/>
+    </row>
+    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="52"/>
+    </row>
+    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A455" s="52"/>
+    </row>
+    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A456" s="52"/>
+    </row>
+    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="52"/>
+    </row>
+    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A458" s="52"/>
+    </row>
+    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="52"/>
+    </row>
+    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="52"/>
+    </row>
+    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="52"/>
+    </row>
+    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="52"/>
+    </row>
+    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="52"/>
+    </row>
+    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="52"/>
+    </row>
+    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="52"/>
+    </row>
+    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="52"/>
+    </row>
+    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="52"/>
+    </row>
+    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="52"/>
+    </row>
+    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="52"/>
+    </row>
+    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="52"/>
+    </row>
+    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="52"/>
+    </row>
+    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="52"/>
+    </row>
+    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="52"/>
+    </row>
+    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="52"/>
+    </row>
+    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="52"/>
+    </row>
+    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="52"/>
+    </row>
+    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="52"/>
+    </row>
+    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="52"/>
+    </row>
+    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="52"/>
+    </row>
+    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="52"/>
+    </row>
+    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="52"/>
+    </row>
+    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="52"/>
+    </row>
+    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="52"/>
+    </row>
+    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="52"/>
+    </row>
+    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="52"/>
+    </row>
+    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="52"/>
+    </row>
+    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="52"/>
+    </row>
+    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="52"/>
+    </row>
+    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="52"/>
+    </row>
+    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="52"/>
+    </row>
+    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="52"/>
+    </row>
+    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="52"/>
+    </row>
+    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A493" s="52"/>
+    </row>
+    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A494" s="52"/>
+    </row>
+    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="52"/>
+    </row>
+    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A496" s="52"/>
+    </row>
+    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="52"/>
+    </row>
+    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A498" s="52"/>
+    </row>
+    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="52"/>
+    </row>
+    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="52"/>
+    </row>
+    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="52"/>
+    </row>
+    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A502" s="52"/>
+    </row>
+    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A503" s="52"/>
+    </row>
+    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A504" s="52"/>
+    </row>
+    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A505" s="52"/>
+    </row>
+    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A506" s="52"/>
+    </row>
+    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A507" s="52"/>
+    </row>
+    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A508" s="52"/>
+    </row>
+    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A509" s="52"/>
+    </row>
+    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A510" s="52"/>
+    </row>
+    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A511" s="52"/>
+    </row>
+    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A512" s="52"/>
+    </row>
+    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A513" s="52"/>
+    </row>
+    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A514" s="52"/>
+    </row>
+    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="52"/>
+    </row>
+    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="52"/>
+    </row>
+    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A517" s="52"/>
+    </row>
+    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A518" s="52"/>
+    </row>
+    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A519" s="52"/>
+    </row>
+    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A520" s="52"/>
+    </row>
+    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A521" s="52"/>
+    </row>
+    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A522" s="52"/>
+    </row>
+    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A523" s="52"/>
+    </row>
+    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A524" s="52"/>
+    </row>
+    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A525" s="52"/>
+    </row>
+    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="52"/>
+    </row>
+    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="52"/>
+    </row>
+    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A528" s="52"/>
+    </row>
+    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A529" s="52"/>
+    </row>
+    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A530" s="52"/>
+    </row>
+    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A531" s="52"/>
+    </row>
+    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A532" s="52"/>
+    </row>
+    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A533" s="52"/>
+    </row>
+    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A534" s="52"/>
+    </row>
+    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A535" s="52"/>
+    </row>
+    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="52"/>
+    </row>
+    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A537" s="52"/>
+    </row>
+    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A538" s="52"/>
+    </row>
+    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A539" s="52"/>
+    </row>
+    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A540" s="52"/>
+    </row>
+    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A541" s="52"/>
+    </row>
+    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A542" s="52"/>
+    </row>
+    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A543" s="52"/>
+    </row>
+    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A544" s="52"/>
+    </row>
+    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A545" s="52"/>
+    </row>
+    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="52"/>
+    </row>
+    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="52"/>
+    </row>
+    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="52"/>
+    </row>
+    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A549" s="52"/>
+    </row>
+    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A550" s="52"/>
+    </row>
+    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A551" s="52"/>
+    </row>
+    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A552" s="52"/>
+    </row>
+    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="52"/>
+    </row>
+    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A554" s="52"/>
+    </row>
+    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="52"/>
+    </row>
+    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A556" s="52"/>
+    </row>
+    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="52"/>
+    </row>
+    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="52"/>
+    </row>
+    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="52"/>
+    </row>
+    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="52"/>
+    </row>
+    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="52"/>
+    </row>
+    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="52"/>
+    </row>
+    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A563" s="52"/>
+    </row>
+    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A564" s="52"/>
+    </row>
+    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A565" s="52"/>
+    </row>
+    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A566" s="52"/>
+    </row>
+    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A567" s="52"/>
+    </row>
+    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A568" s="52"/>
+    </row>
+    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A569" s="52"/>
+    </row>
+    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="52"/>
+    </row>
+    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="52"/>
+    </row>
+    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A572" s="52"/>
+    </row>
+    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A573" s="52"/>
+    </row>
+    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A574" s="52"/>
+    </row>
+    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="52"/>
+    </row>
+    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="52"/>
+    </row>
+    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="52"/>
+    </row>
+    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="52"/>
+    </row>
+    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="52"/>
+    </row>
+    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="52"/>
+    </row>
+    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="52"/>
+    </row>
+    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="52"/>
+    </row>
+    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="52"/>
+    </row>
+    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="52"/>
+    </row>
+    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="52"/>
+    </row>
+    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A586" s="52"/>
+    </row>
+    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="52"/>
+    </row>
+    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="52"/>
+    </row>
+    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="52"/>
+    </row>
+    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="52"/>
+    </row>
+    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="52"/>
+    </row>
+    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="52"/>
+    </row>
+    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="52"/>
+    </row>
+    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="52"/>
+    </row>
+    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="52"/>
+    </row>
+    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="52"/>
+    </row>
+    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="52"/>
+    </row>
+    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="52"/>
+    </row>
+    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="52"/>
+    </row>
+    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="52"/>
+    </row>
+    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="52"/>
+    </row>
+    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="52"/>
+    </row>
+    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="52"/>
+    </row>
+    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="52"/>
+    </row>
+    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="52"/>
+    </row>
+    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="52"/>
+    </row>
+    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="52"/>
+    </row>
+    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="52"/>
+    </row>
+    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="52"/>
+    </row>
+    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="52"/>
+    </row>
+    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="52"/>
+    </row>
+    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="52"/>
+    </row>
+    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="52"/>
+    </row>
+    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="52"/>
+    </row>
+    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="52"/>
+    </row>
+    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="52"/>
+    </row>
+    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="52"/>
+    </row>
+    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="52"/>
+    </row>
+    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="52"/>
+    </row>
+    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="52"/>
+    </row>
+    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="52"/>
+    </row>
+    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A622" s="52"/>
+    </row>
+    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="52"/>
+    </row>
+    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="52"/>
+    </row>
+    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="52"/>
+    </row>
+    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="52"/>
+    </row>
+    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="52"/>
+    </row>
+    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="52"/>
+    </row>
+    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="52"/>
+    </row>
+    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A630" s="52"/>
+    </row>
+    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A631" s="52"/>
+    </row>
+    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="52"/>
+    </row>
+    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A633" s="52"/>
+    </row>
+    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A634" s="52"/>
+    </row>
+    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A635" s="52"/>
+    </row>
+    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A636" s="52"/>
+    </row>
+    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A637" s="52"/>
+    </row>
+    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A638" s="52"/>
+    </row>
+    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A639" s="52"/>
+    </row>
+    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A640" s="52"/>
+    </row>
+    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A641" s="52"/>
+    </row>
+    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A642" s="52"/>
+    </row>
+    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A643" s="52"/>
+    </row>
+    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A644" s="52"/>
+    </row>
+    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A645" s="52"/>
+    </row>
+    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A646" s="52"/>
+    </row>
+    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A647" s="52"/>
+    </row>
+    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A648" s="52"/>
+    </row>
+    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A649" s="52"/>
+    </row>
+    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A650" s="52"/>
+    </row>
+    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A651" s="52"/>
+    </row>
+    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A652" s="52"/>
+    </row>
+    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A653" s="52"/>
+    </row>
+    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A654" s="52"/>
+    </row>
+    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A655" s="52"/>
+    </row>
+    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A656" s="52"/>
+    </row>
+    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A657" s="52"/>
+    </row>
+    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A658" s="52"/>
+    </row>
+    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A659" s="52"/>
+    </row>
+    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A660" s="52"/>
+    </row>
+    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A661" s="52"/>
+    </row>
+    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A662" s="52"/>
+    </row>
+    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A663" s="52"/>
+    </row>
+    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A664" s="52"/>
+    </row>
+    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A665" s="52"/>
+    </row>
+    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A666" s="52"/>
+    </row>
+    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A667" s="52"/>
+    </row>
+    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A668" s="52"/>
+    </row>
+    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A669" s="52"/>
+    </row>
+    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A670" s="52"/>
+    </row>
+    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A671" s="52"/>
+    </row>
+    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A672" s="52"/>
+    </row>
+    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A673" s="52"/>
+    </row>
+    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A674" s="52"/>
+    </row>
+    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A675" s="52"/>
+    </row>
+    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A676" s="52"/>
+    </row>
+    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A677" s="52"/>
+    </row>
+    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A678" s="52"/>
+    </row>
+    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A679" s="52"/>
+    </row>
+    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A680" s="52"/>
+    </row>
+    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A681" s="52"/>
+    </row>
+    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A682" s="52"/>
+    </row>
+    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A683" s="52"/>
+    </row>
+    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A684" s="52"/>
+    </row>
+    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A685" s="52"/>
+    </row>
+    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A686" s="52"/>
+    </row>
+    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A687" s="52"/>
+    </row>
+    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A688" s="52"/>
+    </row>
+    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A689" s="52"/>
+    </row>
+    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A690" s="52"/>
+    </row>
+    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A691" s="52"/>
+    </row>
+    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A692" s="52"/>
+    </row>
+    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A693" s="52"/>
+    </row>
+    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A694" s="52"/>
+    </row>
+    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A695" s="52"/>
+    </row>
+    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A696" s="52"/>
+    </row>
+    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A697" s="52"/>
+    </row>
+    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A698" s="52"/>
+    </row>
+    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A699" s="52"/>
+    </row>
+    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A700" s="52"/>
+    </row>
+    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A701" s="52"/>
+    </row>
+    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A702" s="52"/>
+    </row>
+    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A703" s="52"/>
+    </row>
+    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A704" s="52"/>
+    </row>
+    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A705" s="52"/>
+    </row>
+    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A706" s="52"/>
+    </row>
+    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A707" s="52"/>
+    </row>
+    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A708" s="52"/>
+    </row>
+    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A709" s="52"/>
+    </row>
+    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A710" s="52"/>
+    </row>
+    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A711" s="52"/>
+    </row>
+    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A712" s="52"/>
+    </row>
+    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A713" s="52"/>
+    </row>
+    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A714" s="52"/>
+    </row>
+    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A715" s="52"/>
+    </row>
+    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A716" s="52"/>
+    </row>
+    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A717" s="52"/>
+    </row>
+    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A718" s="52"/>
+    </row>
+    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A719" s="52"/>
+    </row>
+    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A720" s="52"/>
+    </row>
+    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A721" s="52"/>
+    </row>
+    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A722" s="52"/>
+    </row>
+    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A723" s="52"/>
+    </row>
+    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A724" s="52"/>
+    </row>
+    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A725" s="52"/>
+    </row>
+    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A726" s="52"/>
+    </row>
+    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A727" s="52"/>
+    </row>
+    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A728" s="52"/>
+    </row>
+    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A729" s="52"/>
+    </row>
+    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A730" s="52"/>
+    </row>
+    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A731" s="52"/>
+    </row>
+    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A732" s="52"/>
+    </row>
+    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A733" s="52"/>
+    </row>
+    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A734" s="52"/>
+    </row>
+    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A735" s="52"/>
+    </row>
+    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A736" s="52"/>
+    </row>
+    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A737" s="52"/>
+    </row>
+    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A738" s="52"/>
+    </row>
+    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A739" s="52"/>
+    </row>
+    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A740" s="52"/>
+    </row>
+    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A741" s="52"/>
+    </row>
+    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A742" s="52"/>
+    </row>
+    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A743" s="52"/>
+    </row>
+    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A744" s="52"/>
+    </row>
+    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A745" s="52"/>
+    </row>
+    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A746" s="52"/>
+    </row>
+    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A747" s="52"/>
+    </row>
+    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A748" s="52"/>
+    </row>
+    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A749" s="52"/>
+    </row>
+    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A750" s="52"/>
+    </row>
+    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A751" s="52"/>
+    </row>
+    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A752" s="52"/>
+    </row>
+    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A753" s="52"/>
+    </row>
+    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A754" s="52"/>
+    </row>
+    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A755" s="52"/>
+    </row>
+    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A756" s="52"/>
+    </row>
+    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A757" s="52"/>
+    </row>
+    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A758" s="52"/>
+    </row>
+    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A759" s="52"/>
+    </row>
+    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A760" s="52"/>
+    </row>
+    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A761" s="52"/>
+    </row>
+    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A762" s="52"/>
+    </row>
+    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A763" s="52"/>
+    </row>
+    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A764" s="52"/>
+    </row>
+    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A765" s="52"/>
+    </row>
+    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A766" s="52"/>
+    </row>
+    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A767" s="52"/>
+    </row>
+    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A768" s="52"/>
+    </row>
+    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A769" s="52"/>
+    </row>
+    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A770" s="52"/>
+    </row>
+    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A771" s="52"/>
+    </row>
+    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A772" s="52"/>
+    </row>
+    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A773" s="52"/>
+    </row>
+    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A774" s="52"/>
+    </row>
+    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A775" s="52"/>
+    </row>
+    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A776" s="52"/>
+    </row>
+    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A777" s="52"/>
+    </row>
+    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A778" s="52"/>
+    </row>
+    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A779" s="52"/>
+    </row>
+    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A780" s="52"/>
+    </row>
+    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A781" s="52"/>
+    </row>
+    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A782" s="52"/>
+    </row>
+    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A783" s="52"/>
+    </row>
+    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A784" s="52"/>
+    </row>
+    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A785" s="52"/>
+    </row>
+    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A786" s="52"/>
+    </row>
+    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A787" s="52"/>
+    </row>
+    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A788" s="52"/>
+    </row>
+    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A789" s="52"/>
+    </row>
+    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A790" s="52"/>
+    </row>
+    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A791" s="52"/>
+    </row>
+    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A792" s="52"/>
+    </row>
+    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A793" s="52"/>
+    </row>
+    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A794" s="52"/>
+    </row>
+    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A795" s="52"/>
+    </row>
+    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A796" s="52"/>
+    </row>
+    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A797" s="52"/>
+    </row>
+    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A798" s="52"/>
+    </row>
+    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A799" s="52"/>
+    </row>
+    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A800" s="52"/>
+    </row>
+    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A801" s="52"/>
+    </row>
+    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A802" s="52"/>
+    </row>
+    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A803" s="52"/>
+    </row>
+    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A804" s="52"/>
+    </row>
+    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A805" s="52"/>
+    </row>
+    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A806" s="52"/>
+    </row>
+    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A807" s="52"/>
+    </row>
+    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A808" s="52"/>
+    </row>
+    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A809" s="52"/>
+    </row>
+    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A810" s="52"/>
+    </row>
+    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A811" s="52"/>
+    </row>
+    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A812" s="52"/>
+    </row>
+    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A813" s="52"/>
+    </row>
+    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A814" s="52"/>
+    </row>
+    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A815" s="52"/>
+    </row>
+    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A816" s="52"/>
+    </row>
+    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A817" s="52"/>
+    </row>
+    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A818" s="52"/>
+    </row>
+    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A819" s="52"/>
+    </row>
+    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A820" s="52"/>
+    </row>
+    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A821" s="52"/>
+    </row>
+    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A822" s="52"/>
+    </row>
+    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A823" s="52"/>
+    </row>
+    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A824" s="52"/>
+    </row>
+    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A825" s="52"/>
+    </row>
+    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A826" s="52"/>
+    </row>
+    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A827" s="52"/>
+    </row>
+    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A828" s="52"/>
+    </row>
+    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A829" s="52"/>
+    </row>
+    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A830" s="52"/>
+    </row>
+    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A831" s="52"/>
+    </row>
+    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A832" s="52"/>
+    </row>
+    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A833" s="52"/>
+    </row>
+    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A834" s="52"/>
+    </row>
+    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A835" s="52"/>
+    </row>
+    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A836" s="52"/>
+    </row>
+    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A837" s="52"/>
+    </row>
+    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A838" s="52"/>
+    </row>
+    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A839" s="52"/>
+    </row>
+    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A840" s="52"/>
+    </row>
+    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A841" s="52"/>
+    </row>
+    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A842" s="52"/>
+    </row>
+    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A843" s="52"/>
+    </row>
+    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A844" s="52"/>
+    </row>
+    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A845" s="52"/>
+    </row>
+    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A846" s="52"/>
+    </row>
+    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A847" s="52"/>
+    </row>
+    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A848" s="52"/>
+    </row>
+    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A849" s="52"/>
+    </row>
+    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A850" s="52"/>
+    </row>
+    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A851" s="52"/>
+    </row>
+    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A852" s="52"/>
+    </row>
+    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A853" s="52"/>
+    </row>
+    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A854" s="52"/>
+    </row>
+    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A855" s="52"/>
+    </row>
+    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A856" s="52"/>
+    </row>
+    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A857" s="52"/>
+    </row>
+    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A858" s="52"/>
+    </row>
+    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A859" s="52"/>
+    </row>
+    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A860" s="52"/>
+    </row>
+    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A861" s="52"/>
+    </row>
+    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A862" s="52"/>
+    </row>
+    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A863" s="52"/>
+    </row>
+    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A864" s="52"/>
+    </row>
+    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A865" s="52"/>
+    </row>
+    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A866" s="52"/>
+    </row>
+    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A867" s="52"/>
+    </row>
+    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A868" s="52"/>
+    </row>
+    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A869" s="52"/>
+    </row>
+    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A870" s="52"/>
+    </row>
+    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A871" s="52"/>
+    </row>
+    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A872" s="52"/>
+    </row>
+    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A873" s="52"/>
+    </row>
+    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A874" s="52"/>
+    </row>
+    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A875" s="52"/>
+    </row>
+    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A876" s="52"/>
+    </row>
+    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A877" s="52"/>
+    </row>
+    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A878" s="52"/>
+    </row>
+    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A879" s="52"/>
+    </row>
+    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A880" s="52"/>
+    </row>
+    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A881" s="52"/>
+    </row>
+    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A882" s="52"/>
+    </row>
+    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A883" s="52"/>
+    </row>
+    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A884" s="52"/>
+    </row>
+    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A885" s="52"/>
+    </row>
+    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A886" s="52"/>
+    </row>
+    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A887" s="52"/>
+    </row>
+    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A888" s="52"/>
+    </row>
+    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A889" s="52"/>
+    </row>
+    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A890" s="52"/>
+    </row>
+    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A891" s="52"/>
+    </row>
+    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A892" s="52"/>
+    </row>
+    <row r="893" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A893" s="52"/>
+    </row>
+    <row r="894" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A894" s="52"/>
+    </row>
+    <row r="895" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A895" s="52"/>
+    </row>
+    <row r="896" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A896" s="52"/>
+    </row>
+    <row r="897" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A897" s="52"/>
+    </row>
+    <row r="898" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A898" s="52"/>
+    </row>
+    <row r="899" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A899" s="52"/>
+    </row>
+    <row r="900" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A900" s="52"/>
+    </row>
+    <row r="901" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A901" s="52"/>
+    </row>
+    <row r="902" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A902" s="52"/>
+    </row>
+    <row r="903" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A903" s="52"/>
+    </row>
+    <row r="904" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A904" s="52"/>
+    </row>
+    <row r="905" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A905" s="52"/>
+    </row>
+    <row r="906" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A906" s="52"/>
+    </row>
+    <row r="907" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A907" s="52"/>
+    </row>
+    <row r="908" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A908" s="52"/>
+    </row>
+    <row r="909" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A909" s="52"/>
+    </row>
+    <row r="910" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A910" s="52"/>
+    </row>
+    <row r="911" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A911" s="52"/>
+    </row>
+    <row r="912" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A912" s="52"/>
+    </row>
+    <row r="913" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A913" s="52"/>
+    </row>
+    <row r="914" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A914" s="52"/>
+    </row>
+    <row r="915" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A915" s="52"/>
+    </row>
+    <row r="916" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A916" s="52"/>
+    </row>
+    <row r="917" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A917" s="52"/>
+    </row>
+    <row r="918" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A918" s="52"/>
+    </row>
+    <row r="919" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A919" s="52"/>
+    </row>
+    <row r="920" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A920" s="52"/>
+    </row>
+    <row r="921" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A921" s="52"/>
+    </row>
+    <row r="922" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A922" s="52"/>
+    </row>
+    <row r="923" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A923" s="52"/>
+    </row>
+    <row r="924" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A924" s="52"/>
+    </row>
+    <row r="925" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A925" s="52"/>
+    </row>
+    <row r="926" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A926" s="52"/>
+    </row>
+    <row r="927" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A927" s="52"/>
+    </row>
+    <row r="928" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A928" s="52"/>
+    </row>
+    <row r="929" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A929" s="52"/>
+    </row>
+    <row r="930" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A930" s="52"/>
+    </row>
+    <row r="931" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A931" s="52"/>
+    </row>
+    <row r="932" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A932" s="52"/>
+    </row>
+    <row r="933" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A933" s="52"/>
+    </row>
+    <row r="934" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A934" s="52"/>
+    </row>
+    <row r="935" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A935" s="52"/>
+    </row>
+    <row r="936" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A936" s="52"/>
+    </row>
+    <row r="937" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A937" s="52"/>
+    </row>
+    <row r="938" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A938" s="52"/>
+    </row>
+    <row r="939" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A939" s="52"/>
+    </row>
+    <row r="940" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A940" s="52"/>
+    </row>
+    <row r="941" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A941" s="52"/>
+    </row>
+    <row r="942" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A942" s="52"/>
+    </row>
+    <row r="943" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A943" s="52"/>
+    </row>
+    <row r="944" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A944" s="52"/>
+    </row>
+    <row r="945" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A945" s="52"/>
+    </row>
+    <row r="946" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A946" s="52"/>
+    </row>
+    <row r="947" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A947" s="52"/>
+    </row>
+    <row r="948" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A948" s="52"/>
+    </row>
+    <row r="949" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A949" s="52"/>
+    </row>
+    <row r="950" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A950" s="52"/>
+    </row>
+    <row r="951" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A951" s="52"/>
+    </row>
+    <row r="952" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A952" s="52"/>
+    </row>
+    <row r="953" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A953" s="52"/>
+    </row>
+    <row r="954" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A954" s="52"/>
+    </row>
+    <row r="955" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A955" s="52"/>
+    </row>
+    <row r="956" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A956" s="52"/>
+    </row>
+    <row r="957" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A957" s="52"/>
+    </row>
+    <row r="958" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A958" s="52"/>
+    </row>
+    <row r="959" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A959" s="52"/>
+    </row>
+    <row r="960" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A960" s="52"/>
+    </row>
+    <row r="961" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A961" s="52"/>
+    </row>
+    <row r="962" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A962" s="52"/>
+    </row>
+    <row r="963" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A963" s="52"/>
+    </row>
+    <row r="964" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A964" s="52"/>
+    </row>
+    <row r="965" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A965" s="52"/>
+    </row>
+    <row r="966" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A966" s="52"/>
+    </row>
+    <row r="967" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A967" s="52"/>
+    </row>
+    <row r="968" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A968" s="52"/>
+    </row>
+    <row r="969" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A969" s="52"/>
+    </row>
+    <row r="970" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A970" s="52"/>
+    </row>
+    <row r="971" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A971" s="52"/>
+    </row>
+    <row r="972" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A972" s="52"/>
+    </row>
+    <row r="973" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A973" s="52"/>
+    </row>
+    <row r="974" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A974" s="52"/>
+    </row>
+    <row r="975" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A975" s="52"/>
+    </row>
+    <row r="976" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A976" s="52"/>
+    </row>
+    <row r="977" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A977" s="52"/>
+    </row>
+    <row r="978" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A978" s="52"/>
+    </row>
+    <row r="979" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A979" s="52"/>
+    </row>
+    <row r="980" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A980" s="52"/>
+    </row>
+    <row r="981" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A981" s="52"/>
+    </row>
+    <row r="982" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A982" s="52"/>
+    </row>
+    <row r="983" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A983" s="52"/>
+    </row>
+    <row r="984" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A984" s="52"/>
+    </row>
+    <row r="985" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A985" s="52"/>
+    </row>
+    <row r="986" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A986" s="52"/>
+    </row>
+    <row r="987" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A987" s="52"/>
+    </row>
+    <row r="988" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A988" s="52"/>
+    </row>
+    <row r="989" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A989" s="52"/>
+    </row>
+    <row r="990" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A990" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="A13" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -42564,16 +45854,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D2" s="51">
         <v>0</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
@@ -42593,7 +45883,7 @@
         <v>0.29859999999999998</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -42621,22 +45911,22 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="66">
+      <c r="A5" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="65">
         <v>1630</v>
       </c>
-      <c r="C5" s="63">
-        <v>4832</v>
-      </c>
-      <c r="D5" s="66">
+      <c r="C5" s="65">
+        <v>4916</v>
+      </c>
+      <c r="D5" s="65">
         <v>2061</v>
       </c>
-      <c r="E5" s="63">
-        <v>4952</v>
-      </c>
-      <c r="F5" s="66">
+      <c r="E5" s="65">
+        <v>5036</v>
+      </c>
+      <c r="F5" s="65">
         <v>297</v>
       </c>
     </row>
@@ -42681,48 +45971,48 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>203</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="64">
         <v>203</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="64">
         <v>203</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="64">
         <v>203</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="73">
         <v>40</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="73">
         <v>40</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="73">
         <v>40</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="73">
         <v>40</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -42742,7 +46032,7 @@
     </row>
     <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B11" s="62">
         <v>0</v>
@@ -42762,7 +46052,7 @@
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B12" s="62">
         <v>0</v>
@@ -42782,7 +46072,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B13" s="62">
         <v>0</v>
@@ -42802,7 +46092,7 @@
     </row>
     <row r="14" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
@@ -45748,3272 +49038,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Z990"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.6640625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="13" style="47" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="13" style="47" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="47" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="47" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="47" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="47" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="47" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="47" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" style="47" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="47" customWidth="1"/>
-    <col min="15" max="15" width="18" style="47" customWidth="1"/>
-    <col min="16" max="26" width="8.6640625" style="47" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="47"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="49">
-        <v>0</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="51">
-        <v>0</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="49">
-        <v>1.57</v>
-      </c>
-      <c r="C3" s="49">
-        <v>1.57</v>
-      </c>
-      <c r="D3" s="49">
-        <v>1.57</v>
-      </c>
-      <c r="E3" s="49">
-        <v>1.57</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="53">
-        <f t="shared" ref="B4:E4" si="0">21456/100000</f>
-        <v>0.21456</v>
-      </c>
-      <c r="C4" s="53">
-        <f t="shared" si="0"/>
-        <v>0.21456</v>
-      </c>
-      <c r="D4" s="53">
-        <f t="shared" si="0"/>
-        <v>0.21456</v>
-      </c>
-      <c r="E4" s="53">
-        <f t="shared" si="0"/>
-        <v>0.21456</v>
-      </c>
-      <c r="F4" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="66">
-        <v>664</v>
-      </c>
-      <c r="C5" s="63">
-        <v>1905</v>
-      </c>
-      <c r="D5" s="66">
-        <v>1762</v>
-      </c>
-      <c r="E5" s="63">
-        <v>2905</v>
-      </c>
-      <c r="F5" s="66">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="49">
-        <v>1</v>
-      </c>
-      <c r="C6" s="49">
-        <v>1</v>
-      </c>
-      <c r="D6" s="49">
-        <v>1</v>
-      </c>
-      <c r="E6" s="49">
-        <v>1</v>
-      </c>
-      <c r="F6" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="49">
-        <v>0</v>
-      </c>
-      <c r="C7" s="49">
-        <v>0</v>
-      </c>
-      <c r="D7" s="49">
-        <v>0</v>
-      </c>
-      <c r="E7" s="49">
-        <v>0</v>
-      </c>
-      <c r="F7" s="49">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="71" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="65">
-        <v>47</v>
-      </c>
-      <c r="C8" s="65">
-        <v>47</v>
-      </c>
-      <c r="D8" s="65">
-        <v>65</v>
-      </c>
-      <c r="E8" s="65">
-        <v>65</v>
-      </c>
-      <c r="F8" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="71" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="67">
-        <v>6.7</v>
-      </c>
-      <c r="C9" s="67">
-        <v>6.7</v>
-      </c>
-      <c r="D9" s="67">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E9" s="67">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F9" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="51">
-        <v>1</v>
-      </c>
-      <c r="C10" s="51">
-        <v>3</v>
-      </c>
-      <c r="D10" s="51">
-        <v>1</v>
-      </c>
-      <c r="E10" s="51">
-        <v>2</v>
-      </c>
-      <c r="F10" s="51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="62">
-        <v>0</v>
-      </c>
-      <c r="C11" s="62">
-        <v>0</v>
-      </c>
-      <c r="D11" s="62">
-        <v>0</v>
-      </c>
-      <c r="E11" s="62">
-        <v>0</v>
-      </c>
-      <c r="F11" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="62">
-        <v>0</v>
-      </c>
-      <c r="C12" s="62">
-        <v>0</v>
-      </c>
-      <c r="D12" s="62">
-        <v>0</v>
-      </c>
-      <c r="E12" s="62">
-        <v>0</v>
-      </c>
-      <c r="F12" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="62">
-        <v>0</v>
-      </c>
-      <c r="C13" s="62">
-        <v>0</v>
-      </c>
-      <c r="D13" s="62">
-        <v>0</v>
-      </c>
-      <c r="E13" s="62">
-        <v>0</v>
-      </c>
-      <c r="F13" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="52"/>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52"/>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="52"/>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="52"/>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="52"/>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="52"/>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="52"/>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="52"/>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="52"/>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="52"/>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="52"/>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="52"/>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="52"/>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="52"/>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="52"/>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="52"/>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="52"/>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="52"/>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="52"/>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="52"/>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="52"/>
-    </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="52"/>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="52"/>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="52"/>
-    </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52"/>
-    </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="52"/>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="52"/>
-    </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52"/>
-    </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="52"/>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="52"/>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="52"/>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="52"/>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="52"/>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="52"/>
-    </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="52"/>
-    </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="52"/>
-    </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="52"/>
-    </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="52"/>
-    </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="52"/>
-    </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="52"/>
-    </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="52"/>
-    </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="52"/>
-    </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="52"/>
-    </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="52"/>
-    </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="52"/>
-    </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="52"/>
-    </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="52"/>
-    </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="52"/>
-    </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="52"/>
-    </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="52"/>
-    </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="52"/>
-    </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="52"/>
-    </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="52"/>
-    </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="52"/>
-    </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="52"/>
-    </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="52"/>
-    </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="52"/>
-    </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="52"/>
-    </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="52"/>
-    </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="52"/>
-    </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="52"/>
-    </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="52"/>
-    </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="52"/>
-    </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="52"/>
-    </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="52"/>
-    </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="52"/>
-    </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="52"/>
-    </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="52"/>
-    </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="52"/>
-    </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="52"/>
-    </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="52"/>
-    </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="52"/>
-    </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="52"/>
-    </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="52"/>
-    </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="52"/>
-    </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="52"/>
-    </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="52"/>
-    </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="52"/>
-    </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="52"/>
-    </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="52"/>
-    </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="52"/>
-    </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="52"/>
-    </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="52"/>
-    </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="52"/>
-    </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="52"/>
-    </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="52"/>
-    </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="52"/>
-    </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="52"/>
-    </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="52"/>
-    </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="52"/>
-    </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="52"/>
-    </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="52"/>
-    </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="52"/>
-    </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="52"/>
-    </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="52"/>
-    </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="52"/>
-    </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="52"/>
-    </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="52"/>
-    </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="52"/>
-    </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="52"/>
-    </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="52"/>
-    </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="52"/>
-    </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="52"/>
-    </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="52"/>
-    </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="52"/>
-    </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="52"/>
-    </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="52"/>
-    </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="52"/>
-    </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="52"/>
-    </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="52"/>
-    </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="52"/>
-    </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="52"/>
-    </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="52"/>
-    </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="52"/>
-    </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="52"/>
-    </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="52"/>
-    </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="52"/>
-    </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="52"/>
-    </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="52"/>
-    </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="52"/>
-    </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="52"/>
-    </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="52"/>
-    </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="52"/>
-    </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="52"/>
-    </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="52"/>
-    </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="52"/>
-    </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="52"/>
-    </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="52"/>
-    </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="52"/>
-    </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="52"/>
-    </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="52"/>
-    </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="52"/>
-    </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="52"/>
-    </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="52"/>
-    </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="52"/>
-    </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="52"/>
-    </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="52"/>
-    </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="52"/>
-    </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="52"/>
-    </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="52"/>
-    </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="52"/>
-    </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="52"/>
-    </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="52"/>
-    </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="52"/>
-    </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="52"/>
-    </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="52"/>
-    </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="52"/>
-    </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="52"/>
-    </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="52"/>
-    </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="52"/>
-    </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="52"/>
-    </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="52"/>
-    </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="52"/>
-    </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="52"/>
-    </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="52"/>
-    </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="52"/>
-    </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="52"/>
-    </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="52"/>
-    </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="52"/>
-    </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="52"/>
-    </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="52"/>
-    </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="52"/>
-    </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="52"/>
-    </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="52"/>
-    </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="52"/>
-    </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="52"/>
-    </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="52"/>
-    </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="52"/>
-    </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="52"/>
-    </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="52"/>
-    </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="52"/>
-    </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="52"/>
-    </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="52"/>
-    </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="52"/>
-    </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="52"/>
-    </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="52"/>
-    </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="52"/>
-    </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="52"/>
-    </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="52"/>
-    </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="52"/>
-    </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="52"/>
-    </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="52"/>
-    </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="52"/>
-    </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="52"/>
-    </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="52"/>
-    </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="52"/>
-    </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="52"/>
-    </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="52"/>
-    </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="52"/>
-    </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="52"/>
-    </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="52"/>
-    </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="52"/>
-    </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="52"/>
-    </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="52"/>
-    </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="52"/>
-    </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="52"/>
-    </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="52"/>
-    </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="52"/>
-    </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="52"/>
-    </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="52"/>
-    </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="52"/>
-    </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="52"/>
-    </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="52"/>
-    </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="52"/>
-    </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="52"/>
-    </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="52"/>
-    </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="52"/>
-    </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="52"/>
-    </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="52"/>
-    </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="52"/>
-    </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="52"/>
-    </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="52"/>
-    </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="52"/>
-    </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="52"/>
-    </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="52"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="52"/>
-    </row>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="52"/>
-    </row>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="52"/>
-    </row>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="52"/>
-    </row>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="52"/>
-    </row>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="52"/>
-    </row>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="52"/>
-    </row>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="52"/>
-    </row>
-    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="52"/>
-    </row>
-    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="52"/>
-    </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="52"/>
-    </row>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="52"/>
-    </row>
-    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="52"/>
-    </row>
-    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="52"/>
-    </row>
-    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="52"/>
-    </row>
-    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="52"/>
-    </row>
-    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="52"/>
-    </row>
-    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="52"/>
-    </row>
-    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="52"/>
-    </row>
-    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="52"/>
-    </row>
-    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="52"/>
-    </row>
-    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="52"/>
-    </row>
-    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="52"/>
-    </row>
-    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="52"/>
-    </row>
-    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="52"/>
-    </row>
-    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="52"/>
-    </row>
-    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="52"/>
-    </row>
-    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="52"/>
-    </row>
-    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="52"/>
-    </row>
-    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="52"/>
-    </row>
-    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="52"/>
-    </row>
-    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="52"/>
-    </row>
-    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="52"/>
-    </row>
-    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="52"/>
-    </row>
-    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="52"/>
-    </row>
-    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="52"/>
-    </row>
-    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="52"/>
-    </row>
-    <row r="286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="52"/>
-    </row>
-    <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="52"/>
-    </row>
-    <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="52"/>
-    </row>
-    <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="52"/>
-    </row>
-    <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="52"/>
-    </row>
-    <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="52"/>
-    </row>
-    <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="52"/>
-    </row>
-    <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="52"/>
-    </row>
-    <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="52"/>
-    </row>
-    <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="52"/>
-    </row>
-    <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="52"/>
-    </row>
-    <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="52"/>
-    </row>
-    <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="52"/>
-    </row>
-    <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="52"/>
-    </row>
-    <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="52"/>
-    </row>
-    <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="52"/>
-    </row>
-    <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="52"/>
-    </row>
-    <row r="303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="52"/>
-    </row>
-    <row r="304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="52"/>
-    </row>
-    <row r="305" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="52"/>
-    </row>
-    <row r="306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="52"/>
-    </row>
-    <row r="307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="52"/>
-    </row>
-    <row r="308" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="52"/>
-    </row>
-    <row r="309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="52"/>
-    </row>
-    <row r="310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="52"/>
-    </row>
-    <row r="311" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="52"/>
-    </row>
-    <row r="312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="52"/>
-    </row>
-    <row r="313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="52"/>
-    </row>
-    <row r="314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="52"/>
-    </row>
-    <row r="315" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="52"/>
-    </row>
-    <row r="316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="52"/>
-    </row>
-    <row r="317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="52"/>
-    </row>
-    <row r="318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="52"/>
-    </row>
-    <row r="319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="52"/>
-    </row>
-    <row r="320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="52"/>
-    </row>
-    <row r="321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="52"/>
-    </row>
-    <row r="322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="52"/>
-    </row>
-    <row r="323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="52"/>
-    </row>
-    <row r="324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="52"/>
-    </row>
-    <row r="325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="52"/>
-    </row>
-    <row r="326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="52"/>
-    </row>
-    <row r="327" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="52"/>
-    </row>
-    <row r="328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="52"/>
-    </row>
-    <row r="329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="52"/>
-    </row>
-    <row r="330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="52"/>
-    </row>
-    <row r="331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="52"/>
-    </row>
-    <row r="332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="52"/>
-    </row>
-    <row r="333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="52"/>
-    </row>
-    <row r="334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="52"/>
-    </row>
-    <row r="335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="52"/>
-    </row>
-    <row r="336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="52"/>
-    </row>
-    <row r="337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="52"/>
-    </row>
-    <row r="338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="52"/>
-    </row>
-    <row r="339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="52"/>
-    </row>
-    <row r="340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="52"/>
-    </row>
-    <row r="341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="52"/>
-    </row>
-    <row r="342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="52"/>
-    </row>
-    <row r="343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="52"/>
-    </row>
-    <row r="344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="52"/>
-    </row>
-    <row r="345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="52"/>
-    </row>
-    <row r="346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="52"/>
-    </row>
-    <row r="347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="52"/>
-    </row>
-    <row r="348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="52"/>
-    </row>
-    <row r="349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="52"/>
-    </row>
-    <row r="350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="52"/>
-    </row>
-    <row r="351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="52"/>
-    </row>
-    <row r="352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="52"/>
-    </row>
-    <row r="353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="52"/>
-    </row>
-    <row r="354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="52"/>
-    </row>
-    <row r="355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="52"/>
-    </row>
-    <row r="356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="52"/>
-    </row>
-    <row r="357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="52"/>
-    </row>
-    <row r="358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="52"/>
-    </row>
-    <row r="359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="52"/>
-    </row>
-    <row r="360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="52"/>
-    </row>
-    <row r="361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="52"/>
-    </row>
-    <row r="362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="52"/>
-    </row>
-    <row r="363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="52"/>
-    </row>
-    <row r="364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="52"/>
-    </row>
-    <row r="365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="52"/>
-    </row>
-    <row r="366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="52"/>
-    </row>
-    <row r="367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="52"/>
-    </row>
-    <row r="368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="52"/>
-    </row>
-    <row r="369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="52"/>
-    </row>
-    <row r="370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="52"/>
-    </row>
-    <row r="371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="52"/>
-    </row>
-    <row r="372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="52"/>
-    </row>
-    <row r="373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="52"/>
-    </row>
-    <row r="374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="52"/>
-    </row>
-    <row r="375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="52"/>
-    </row>
-    <row r="376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="52"/>
-    </row>
-    <row r="377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="52"/>
-    </row>
-    <row r="378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="52"/>
-    </row>
-    <row r="379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="52"/>
-    </row>
-    <row r="380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="52"/>
-    </row>
-    <row r="381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="52"/>
-    </row>
-    <row r="382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="52"/>
-    </row>
-    <row r="383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="52"/>
-    </row>
-    <row r="384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="52"/>
-    </row>
-    <row r="385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="52"/>
-    </row>
-    <row r="386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="52"/>
-    </row>
-    <row r="387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="52"/>
-    </row>
-    <row r="388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="52"/>
-    </row>
-    <row r="389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="52"/>
-    </row>
-    <row r="390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="52"/>
-    </row>
-    <row r="391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="52"/>
-    </row>
-    <row r="392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="52"/>
-    </row>
-    <row r="393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="52"/>
-    </row>
-    <row r="394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="52"/>
-    </row>
-    <row r="395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="52"/>
-    </row>
-    <row r="396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="52"/>
-    </row>
-    <row r="397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="52"/>
-    </row>
-    <row r="398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="52"/>
-    </row>
-    <row r="399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="52"/>
-    </row>
-    <row r="400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="52"/>
-    </row>
-    <row r="401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="52"/>
-    </row>
-    <row r="402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="52"/>
-    </row>
-    <row r="403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="52"/>
-    </row>
-    <row r="404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="52"/>
-    </row>
-    <row r="405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="52"/>
-    </row>
-    <row r="406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="52"/>
-    </row>
-    <row r="407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="52"/>
-    </row>
-    <row r="408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="52"/>
-    </row>
-    <row r="409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="52"/>
-    </row>
-    <row r="410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="52"/>
-    </row>
-    <row r="411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="52"/>
-    </row>
-    <row r="412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="52"/>
-    </row>
-    <row r="413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="52"/>
-    </row>
-    <row r="414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="52"/>
-    </row>
-    <row r="415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="52"/>
-    </row>
-    <row r="416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="52"/>
-    </row>
-    <row r="417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="52"/>
-    </row>
-    <row r="418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="52"/>
-    </row>
-    <row r="419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="52"/>
-    </row>
-    <row r="420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="52"/>
-    </row>
-    <row r="421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="52"/>
-    </row>
-    <row r="422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="52"/>
-    </row>
-    <row r="423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="52"/>
-    </row>
-    <row r="424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="52"/>
-    </row>
-    <row r="425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="52"/>
-    </row>
-    <row r="426" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="52"/>
-    </row>
-    <row r="427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A427" s="52"/>
-    </row>
-    <row r="428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="52"/>
-    </row>
-    <row r="429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="52"/>
-    </row>
-    <row r="430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="52"/>
-    </row>
-    <row r="431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="52"/>
-    </row>
-    <row r="432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="52"/>
-    </row>
-    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="52"/>
-    </row>
-    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="52"/>
-    </row>
-    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="52"/>
-    </row>
-    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="52"/>
-    </row>
-    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="52"/>
-    </row>
-    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="52"/>
-    </row>
-    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A439" s="52"/>
-    </row>
-    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="52"/>
-    </row>
-    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="52"/>
-    </row>
-    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="52"/>
-    </row>
-    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A443" s="52"/>
-    </row>
-    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A444" s="52"/>
-    </row>
-    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="52"/>
-    </row>
-    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="52"/>
-    </row>
-    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A447" s="52"/>
-    </row>
-    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="52"/>
-    </row>
-    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="52"/>
-    </row>
-    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="52"/>
-    </row>
-    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A451" s="52"/>
-    </row>
-    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="52"/>
-    </row>
-    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="52"/>
-    </row>
-    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="52"/>
-    </row>
-    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A455" s="52"/>
-    </row>
-    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="52"/>
-    </row>
-    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="52"/>
-    </row>
-    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="52"/>
-    </row>
-    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="52"/>
-    </row>
-    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="52"/>
-    </row>
-    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="52"/>
-    </row>
-    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="52"/>
-    </row>
-    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="52"/>
-    </row>
-    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="52"/>
-    </row>
-    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="52"/>
-    </row>
-    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="52"/>
-    </row>
-    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="52"/>
-    </row>
-    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="52"/>
-    </row>
-    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="52"/>
-    </row>
-    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="52"/>
-    </row>
-    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A471" s="52"/>
-    </row>
-    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="52"/>
-    </row>
-    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="52"/>
-    </row>
-    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="52"/>
-    </row>
-    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="52"/>
-    </row>
-    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A476" s="52"/>
-    </row>
-    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A477" s="52"/>
-    </row>
-    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="52"/>
-    </row>
-    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A479" s="52"/>
-    </row>
-    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A480" s="52"/>
-    </row>
-    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="52"/>
-    </row>
-    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="52"/>
-    </row>
-    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A483" s="52"/>
-    </row>
-    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="52"/>
-    </row>
-    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A485" s="52"/>
-    </row>
-    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A486" s="52"/>
-    </row>
-    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="52"/>
-    </row>
-    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="52"/>
-    </row>
-    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="52"/>
-    </row>
-    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="52"/>
-    </row>
-    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="52"/>
-    </row>
-    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="52"/>
-    </row>
-    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A493" s="52"/>
-    </row>
-    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="52"/>
-    </row>
-    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A495" s="52"/>
-    </row>
-    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A496" s="52"/>
-    </row>
-    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A497" s="52"/>
-    </row>
-    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="52"/>
-    </row>
-    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="52"/>
-    </row>
-    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A500" s="52"/>
-    </row>
-    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="52"/>
-    </row>
-    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="52"/>
-    </row>
-    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="52"/>
-    </row>
-    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="52"/>
-    </row>
-    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A505" s="52"/>
-    </row>
-    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A506" s="52"/>
-    </row>
-    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A507" s="52"/>
-    </row>
-    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A508" s="52"/>
-    </row>
-    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A509" s="52"/>
-    </row>
-    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="52"/>
-    </row>
-    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A511" s="52"/>
-    </row>
-    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="52"/>
-    </row>
-    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A513" s="52"/>
-    </row>
-    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A514" s="52"/>
-    </row>
-    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A515" s="52"/>
-    </row>
-    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="52"/>
-    </row>
-    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A517" s="52"/>
-    </row>
-    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A518" s="52"/>
-    </row>
-    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A519" s="52"/>
-    </row>
-    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="52"/>
-    </row>
-    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A521" s="52"/>
-    </row>
-    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="52"/>
-    </row>
-    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="52"/>
-    </row>
-    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="52"/>
-    </row>
-    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="52"/>
-    </row>
-    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="52"/>
-    </row>
-    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A527" s="52"/>
-    </row>
-    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A528" s="52"/>
-    </row>
-    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="52"/>
-    </row>
-    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="52"/>
-    </row>
-    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="52"/>
-    </row>
-    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A532" s="52"/>
-    </row>
-    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A533" s="52"/>
-    </row>
-    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A534" s="52"/>
-    </row>
-    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A535" s="52"/>
-    </row>
-    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="52"/>
-    </row>
-    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="52"/>
-    </row>
-    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A538" s="52"/>
-    </row>
-    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A539" s="52"/>
-    </row>
-    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="52"/>
-    </row>
-    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="52"/>
-    </row>
-    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A542" s="52"/>
-    </row>
-    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A543" s="52"/>
-    </row>
-    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A544" s="52"/>
-    </row>
-    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A545" s="52"/>
-    </row>
-    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A546" s="52"/>
-    </row>
-    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="52"/>
-    </row>
-    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A548" s="52"/>
-    </row>
-    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A549" s="52"/>
-    </row>
-    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="52"/>
-    </row>
-    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A551" s="52"/>
-    </row>
-    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A552" s="52"/>
-    </row>
-    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A553" s="52"/>
-    </row>
-    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A554" s="52"/>
-    </row>
-    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A555" s="52"/>
-    </row>
-    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A556" s="52"/>
-    </row>
-    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A557" s="52"/>
-    </row>
-    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A558" s="52"/>
-    </row>
-    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A559" s="52"/>
-    </row>
-    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A560" s="52"/>
-    </row>
-    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="52"/>
-    </row>
-    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A562" s="52"/>
-    </row>
-    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A563" s="52"/>
-    </row>
-    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A564" s="52"/>
-    </row>
-    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A565" s="52"/>
-    </row>
-    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A566" s="52"/>
-    </row>
-    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A567" s="52"/>
-    </row>
-    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A568" s="52"/>
-    </row>
-    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A569" s="52"/>
-    </row>
-    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="52"/>
-    </row>
-    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A571" s="52"/>
-    </row>
-    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A572" s="52"/>
-    </row>
-    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A573" s="52"/>
-    </row>
-    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="52"/>
-    </row>
-    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A575" s="52"/>
-    </row>
-    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A576" s="52"/>
-    </row>
-    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A577" s="52"/>
-    </row>
-    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A578" s="52"/>
-    </row>
-    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A579" s="52"/>
-    </row>
-    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A580" s="52"/>
-    </row>
-    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A581" s="52"/>
-    </row>
-    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A582" s="52"/>
-    </row>
-    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A583" s="52"/>
-    </row>
-    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="52"/>
-    </row>
-    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A585" s="52"/>
-    </row>
-    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A586" s="52"/>
-    </row>
-    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A587" s="52"/>
-    </row>
-    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A588" s="52"/>
-    </row>
-    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A589" s="52"/>
-    </row>
-    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A590" s="52"/>
-    </row>
-    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A591" s="52"/>
-    </row>
-    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A592" s="52"/>
-    </row>
-    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A593" s="52"/>
-    </row>
-    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A594" s="52"/>
-    </row>
-    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A595" s="52"/>
-    </row>
-    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A596" s="52"/>
-    </row>
-    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A597" s="52"/>
-    </row>
-    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A598" s="52"/>
-    </row>
-    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A599" s="52"/>
-    </row>
-    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A600" s="52"/>
-    </row>
-    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A601" s="52"/>
-    </row>
-    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A602" s="52"/>
-    </row>
-    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A603" s="52"/>
-    </row>
-    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A604" s="52"/>
-    </row>
-    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A605" s="52"/>
-    </row>
-    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A606" s="52"/>
-    </row>
-    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A607" s="52"/>
-    </row>
-    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A608" s="52"/>
-    </row>
-    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A609" s="52"/>
-    </row>
-    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A610" s="52"/>
-    </row>
-    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A611" s="52"/>
-    </row>
-    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A612" s="52"/>
-    </row>
-    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A613" s="52"/>
-    </row>
-    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A614" s="52"/>
-    </row>
-    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A615" s="52"/>
-    </row>
-    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A616" s="52"/>
-    </row>
-    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A617" s="52"/>
-    </row>
-    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A618" s="52"/>
-    </row>
-    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A619" s="52"/>
-    </row>
-    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A620" s="52"/>
-    </row>
-    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A621" s="52"/>
-    </row>
-    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A622" s="52"/>
-    </row>
-    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A623" s="52"/>
-    </row>
-    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A624" s="52"/>
-    </row>
-    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A625" s="52"/>
-    </row>
-    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A626" s="52"/>
-    </row>
-    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A627" s="52"/>
-    </row>
-    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A628" s="52"/>
-    </row>
-    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A629" s="52"/>
-    </row>
-    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A630" s="52"/>
-    </row>
-    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A631" s="52"/>
-    </row>
-    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A632" s="52"/>
-    </row>
-    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A633" s="52"/>
-    </row>
-    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A634" s="52"/>
-    </row>
-    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A635" s="52"/>
-    </row>
-    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A636" s="52"/>
-    </row>
-    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A637" s="52"/>
-    </row>
-    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A638" s="52"/>
-    </row>
-    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A639" s="52"/>
-    </row>
-    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A640" s="52"/>
-    </row>
-    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A641" s="52"/>
-    </row>
-    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A642" s="52"/>
-    </row>
-    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A643" s="52"/>
-    </row>
-    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A644" s="52"/>
-    </row>
-    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A645" s="52"/>
-    </row>
-    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A646" s="52"/>
-    </row>
-    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A647" s="52"/>
-    </row>
-    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A648" s="52"/>
-    </row>
-    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A649" s="52"/>
-    </row>
-    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A650" s="52"/>
-    </row>
-    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A651" s="52"/>
-    </row>
-    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A652" s="52"/>
-    </row>
-    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A653" s="52"/>
-    </row>
-    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A654" s="52"/>
-    </row>
-    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A655" s="52"/>
-    </row>
-    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A656" s="52"/>
-    </row>
-    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A657" s="52"/>
-    </row>
-    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A658" s="52"/>
-    </row>
-    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A659" s="52"/>
-    </row>
-    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A660" s="52"/>
-    </row>
-    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A661" s="52"/>
-    </row>
-    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A662" s="52"/>
-    </row>
-    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A663" s="52"/>
-    </row>
-    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A664" s="52"/>
-    </row>
-    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A665" s="52"/>
-    </row>
-    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A666" s="52"/>
-    </row>
-    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A667" s="52"/>
-    </row>
-    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A668" s="52"/>
-    </row>
-    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A669" s="52"/>
-    </row>
-    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A670" s="52"/>
-    </row>
-    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A671" s="52"/>
-    </row>
-    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A672" s="52"/>
-    </row>
-    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A673" s="52"/>
-    </row>
-    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A674" s="52"/>
-    </row>
-    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A675" s="52"/>
-    </row>
-    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A676" s="52"/>
-    </row>
-    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A677" s="52"/>
-    </row>
-    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A678" s="52"/>
-    </row>
-    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A679" s="52"/>
-    </row>
-    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A680" s="52"/>
-    </row>
-    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A681" s="52"/>
-    </row>
-    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A682" s="52"/>
-    </row>
-    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A683" s="52"/>
-    </row>
-    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A684" s="52"/>
-    </row>
-    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A685" s="52"/>
-    </row>
-    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A686" s="52"/>
-    </row>
-    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A687" s="52"/>
-    </row>
-    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A688" s="52"/>
-    </row>
-    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A689" s="52"/>
-    </row>
-    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A690" s="52"/>
-    </row>
-    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A691" s="52"/>
-    </row>
-    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A692" s="52"/>
-    </row>
-    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A693" s="52"/>
-    </row>
-    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A694" s="52"/>
-    </row>
-    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A695" s="52"/>
-    </row>
-    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A696" s="52"/>
-    </row>
-    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A697" s="52"/>
-    </row>
-    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A698" s="52"/>
-    </row>
-    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A699" s="52"/>
-    </row>
-    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A700" s="52"/>
-    </row>
-    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A701" s="52"/>
-    </row>
-    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A702" s="52"/>
-    </row>
-    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A703" s="52"/>
-    </row>
-    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A704" s="52"/>
-    </row>
-    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A705" s="52"/>
-    </row>
-    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A706" s="52"/>
-    </row>
-    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A707" s="52"/>
-    </row>
-    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A708" s="52"/>
-    </row>
-    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A709" s="52"/>
-    </row>
-    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A710" s="52"/>
-    </row>
-    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A711" s="52"/>
-    </row>
-    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A712" s="52"/>
-    </row>
-    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A713" s="52"/>
-    </row>
-    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A714" s="52"/>
-    </row>
-    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A715" s="52"/>
-    </row>
-    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A716" s="52"/>
-    </row>
-    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A717" s="52"/>
-    </row>
-    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A718" s="52"/>
-    </row>
-    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A719" s="52"/>
-    </row>
-    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A720" s="52"/>
-    </row>
-    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A721" s="52"/>
-    </row>
-    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A722" s="52"/>
-    </row>
-    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A723" s="52"/>
-    </row>
-    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A724" s="52"/>
-    </row>
-    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A725" s="52"/>
-    </row>
-    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A726" s="52"/>
-    </row>
-    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A727" s="52"/>
-    </row>
-    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A728" s="52"/>
-    </row>
-    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A729" s="52"/>
-    </row>
-    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A730" s="52"/>
-    </row>
-    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A731" s="52"/>
-    </row>
-    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A732" s="52"/>
-    </row>
-    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A733" s="52"/>
-    </row>
-    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A734" s="52"/>
-    </row>
-    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A735" s="52"/>
-    </row>
-    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A736" s="52"/>
-    </row>
-    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A737" s="52"/>
-    </row>
-    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A738" s="52"/>
-    </row>
-    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A739" s="52"/>
-    </row>
-    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A740" s="52"/>
-    </row>
-    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A741" s="52"/>
-    </row>
-    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A742" s="52"/>
-    </row>
-    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A743" s="52"/>
-    </row>
-    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A744" s="52"/>
-    </row>
-    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A745" s="52"/>
-    </row>
-    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A746" s="52"/>
-    </row>
-    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A747" s="52"/>
-    </row>
-    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A748" s="52"/>
-    </row>
-    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A749" s="52"/>
-    </row>
-    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A750" s="52"/>
-    </row>
-    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A751" s="52"/>
-    </row>
-    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A752" s="52"/>
-    </row>
-    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A753" s="52"/>
-    </row>
-    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A754" s="52"/>
-    </row>
-    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A755" s="52"/>
-    </row>
-    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A756" s="52"/>
-    </row>
-    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A757" s="52"/>
-    </row>
-    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A758" s="52"/>
-    </row>
-    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A759" s="52"/>
-    </row>
-    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A760" s="52"/>
-    </row>
-    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A761" s="52"/>
-    </row>
-    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A762" s="52"/>
-    </row>
-    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A763" s="52"/>
-    </row>
-    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A764" s="52"/>
-    </row>
-    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A765" s="52"/>
-    </row>
-    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A766" s="52"/>
-    </row>
-    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A767" s="52"/>
-    </row>
-    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A768" s="52"/>
-    </row>
-    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A769" s="52"/>
-    </row>
-    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A770" s="52"/>
-    </row>
-    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A771" s="52"/>
-    </row>
-    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A772" s="52"/>
-    </row>
-    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A773" s="52"/>
-    </row>
-    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A774" s="52"/>
-    </row>
-    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A775" s="52"/>
-    </row>
-    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A776" s="52"/>
-    </row>
-    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A777" s="52"/>
-    </row>
-    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A778" s="52"/>
-    </row>
-    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A779" s="52"/>
-    </row>
-    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A780" s="52"/>
-    </row>
-    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A781" s="52"/>
-    </row>
-    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A782" s="52"/>
-    </row>
-    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A783" s="52"/>
-    </row>
-    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A784" s="52"/>
-    </row>
-    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A785" s="52"/>
-    </row>
-    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A786" s="52"/>
-    </row>
-    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A787" s="52"/>
-    </row>
-    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A788" s="52"/>
-    </row>
-    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A789" s="52"/>
-    </row>
-    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A790" s="52"/>
-    </row>
-    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A791" s="52"/>
-    </row>
-    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A792" s="52"/>
-    </row>
-    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A793" s="52"/>
-    </row>
-    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A794" s="52"/>
-    </row>
-    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A795" s="52"/>
-    </row>
-    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A796" s="52"/>
-    </row>
-    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A797" s="52"/>
-    </row>
-    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A798" s="52"/>
-    </row>
-    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A799" s="52"/>
-    </row>
-    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A800" s="52"/>
-    </row>
-    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A801" s="52"/>
-    </row>
-    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A802" s="52"/>
-    </row>
-    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A803" s="52"/>
-    </row>
-    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A804" s="52"/>
-    </row>
-    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A805" s="52"/>
-    </row>
-    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A806" s="52"/>
-    </row>
-    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A807" s="52"/>
-    </row>
-    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A808" s="52"/>
-    </row>
-    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A809" s="52"/>
-    </row>
-    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A810" s="52"/>
-    </row>
-    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A811" s="52"/>
-    </row>
-    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A812" s="52"/>
-    </row>
-    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A813" s="52"/>
-    </row>
-    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A814" s="52"/>
-    </row>
-    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A815" s="52"/>
-    </row>
-    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A816" s="52"/>
-    </row>
-    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A817" s="52"/>
-    </row>
-    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A818" s="52"/>
-    </row>
-    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A819" s="52"/>
-    </row>
-    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A820" s="52"/>
-    </row>
-    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A821" s="52"/>
-    </row>
-    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A822" s="52"/>
-    </row>
-    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A823" s="52"/>
-    </row>
-    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A824" s="52"/>
-    </row>
-    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A825" s="52"/>
-    </row>
-    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A826" s="52"/>
-    </row>
-    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A827" s="52"/>
-    </row>
-    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A828" s="52"/>
-    </row>
-    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A829" s="52"/>
-    </row>
-    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A830" s="52"/>
-    </row>
-    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A831" s="52"/>
-    </row>
-    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A832" s="52"/>
-    </row>
-    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A833" s="52"/>
-    </row>
-    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A834" s="52"/>
-    </row>
-    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A835" s="52"/>
-    </row>
-    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A836" s="52"/>
-    </row>
-    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A837" s="52"/>
-    </row>
-    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A838" s="52"/>
-    </row>
-    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A839" s="52"/>
-    </row>
-    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A840" s="52"/>
-    </row>
-    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A841" s="52"/>
-    </row>
-    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A842" s="52"/>
-    </row>
-    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A843" s="52"/>
-    </row>
-    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A844" s="52"/>
-    </row>
-    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A845" s="52"/>
-    </row>
-    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A846" s="52"/>
-    </row>
-    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A847" s="52"/>
-    </row>
-    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A848" s="52"/>
-    </row>
-    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A849" s="52"/>
-    </row>
-    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A850" s="52"/>
-    </row>
-    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A851" s="52"/>
-    </row>
-    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A852" s="52"/>
-    </row>
-    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A853" s="52"/>
-    </row>
-    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A854" s="52"/>
-    </row>
-    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A855" s="52"/>
-    </row>
-    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A856" s="52"/>
-    </row>
-    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A857" s="52"/>
-    </row>
-    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A858" s="52"/>
-    </row>
-    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A859" s="52"/>
-    </row>
-    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A860" s="52"/>
-    </row>
-    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A861" s="52"/>
-    </row>
-    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A862" s="52"/>
-    </row>
-    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A863" s="52"/>
-    </row>
-    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A864" s="52"/>
-    </row>
-    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A865" s="52"/>
-    </row>
-    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A866" s="52"/>
-    </row>
-    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A867" s="52"/>
-    </row>
-    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A868" s="52"/>
-    </row>
-    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A869" s="52"/>
-    </row>
-    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A870" s="52"/>
-    </row>
-    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A871" s="52"/>
-    </row>
-    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A872" s="52"/>
-    </row>
-    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A873" s="52"/>
-    </row>
-    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A874" s="52"/>
-    </row>
-    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A875" s="52"/>
-    </row>
-    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A876" s="52"/>
-    </row>
-    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A877" s="52"/>
-    </row>
-    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A878" s="52"/>
-    </row>
-    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A879" s="52"/>
-    </row>
-    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A880" s="52"/>
-    </row>
-    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A881" s="52"/>
-    </row>
-    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A882" s="52"/>
-    </row>
-    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A883" s="52"/>
-    </row>
-    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A884" s="52"/>
-    </row>
-    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A885" s="52"/>
-    </row>
-    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A886" s="52"/>
-    </row>
-    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A887" s="52"/>
-    </row>
-    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A888" s="52"/>
-    </row>
-    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A889" s="52"/>
-    </row>
-    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A890" s="52"/>
-    </row>
-    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A891" s="52"/>
-    </row>
-    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A892" s="52"/>
-    </row>
-    <row r="893" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A893" s="52"/>
-    </row>
-    <row r="894" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A894" s="52"/>
-    </row>
-    <row r="895" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A895" s="52"/>
-    </row>
-    <row r="896" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A896" s="52"/>
-    </row>
-    <row r="897" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A897" s="52"/>
-    </row>
-    <row r="898" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A898" s="52"/>
-    </row>
-    <row r="899" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A899" s="52"/>
-    </row>
-    <row r="900" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A900" s="52"/>
-    </row>
-    <row r="901" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A901" s="52"/>
-    </row>
-    <row r="902" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A902" s="52"/>
-    </row>
-    <row r="903" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A903" s="52"/>
-    </row>
-    <row r="904" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A904" s="52"/>
-    </row>
-    <row r="905" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A905" s="52"/>
-    </row>
-    <row r="906" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A906" s="52"/>
-    </row>
-    <row r="907" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A907" s="52"/>
-    </row>
-    <row r="908" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A908" s="52"/>
-    </row>
-    <row r="909" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A909" s="52"/>
-    </row>
-    <row r="910" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A910" s="52"/>
-    </row>
-    <row r="911" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A911" s="52"/>
-    </row>
-    <row r="912" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A912" s="52"/>
-    </row>
-    <row r="913" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A913" s="52"/>
-    </row>
-    <row r="914" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A914" s="52"/>
-    </row>
-    <row r="915" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A915" s="52"/>
-    </row>
-    <row r="916" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A916" s="52"/>
-    </row>
-    <row r="917" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A917" s="52"/>
-    </row>
-    <row r="918" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A918" s="52"/>
-    </row>
-    <row r="919" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A919" s="52"/>
-    </row>
-    <row r="920" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A920" s="52"/>
-    </row>
-    <row r="921" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A921" s="52"/>
-    </row>
-    <row r="922" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A922" s="52"/>
-    </row>
-    <row r="923" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A923" s="52"/>
-    </row>
-    <row r="924" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A924" s="52"/>
-    </row>
-    <row r="925" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A925" s="52"/>
-    </row>
-    <row r="926" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A926" s="52"/>
-    </row>
-    <row r="927" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A927" s="52"/>
-    </row>
-    <row r="928" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A928" s="52"/>
-    </row>
-    <row r="929" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A929" s="52"/>
-    </row>
-    <row r="930" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A930" s="52"/>
-    </row>
-    <row r="931" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A931" s="52"/>
-    </row>
-    <row r="932" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A932" s="52"/>
-    </row>
-    <row r="933" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A933" s="52"/>
-    </row>
-    <row r="934" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A934" s="52"/>
-    </row>
-    <row r="935" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A935" s="52"/>
-    </row>
-    <row r="936" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A936" s="52"/>
-    </row>
-    <row r="937" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A937" s="52"/>
-    </row>
-    <row r="938" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A938" s="52"/>
-    </row>
-    <row r="939" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A939" s="52"/>
-    </row>
-    <row r="940" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A940" s="52"/>
-    </row>
-    <row r="941" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A941" s="52"/>
-    </row>
-    <row r="942" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A942" s="52"/>
-    </row>
-    <row r="943" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A943" s="52"/>
-    </row>
-    <row r="944" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A944" s="52"/>
-    </row>
-    <row r="945" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A945" s="52"/>
-    </row>
-    <row r="946" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A946" s="52"/>
-    </row>
-    <row r="947" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A947" s="52"/>
-    </row>
-    <row r="948" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A948" s="52"/>
-    </row>
-    <row r="949" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A949" s="52"/>
-    </row>
-    <row r="950" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A950" s="52"/>
-    </row>
-    <row r="951" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A951" s="52"/>
-    </row>
-    <row r="952" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A952" s="52"/>
-    </row>
-    <row r="953" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A953" s="52"/>
-    </row>
-    <row r="954" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A954" s="52"/>
-    </row>
-    <row r="955" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A955" s="52"/>
-    </row>
-    <row r="956" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A956" s="52"/>
-    </row>
-    <row r="957" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A957" s="52"/>
-    </row>
-    <row r="958" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A958" s="52"/>
-    </row>
-    <row r="959" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A959" s="52"/>
-    </row>
-    <row r="960" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A960" s="52"/>
-    </row>
-    <row r="961" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A961" s="52"/>
-    </row>
-    <row r="962" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A962" s="52"/>
-    </row>
-    <row r="963" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A963" s="52"/>
-    </row>
-    <row r="964" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A964" s="52"/>
-    </row>
-    <row r="965" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A965" s="52"/>
-    </row>
-    <row r="966" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A966" s="52"/>
-    </row>
-    <row r="967" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A967" s="52"/>
-    </row>
-    <row r="968" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A968" s="52"/>
-    </row>
-    <row r="969" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A969" s="52"/>
-    </row>
-    <row r="970" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A970" s="52"/>
-    </row>
-    <row r="971" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A971" s="52"/>
-    </row>
-    <row r="972" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A972" s="52"/>
-    </row>
-    <row r="973" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A973" s="52"/>
-    </row>
-    <row r="974" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A974" s="52"/>
-    </row>
-    <row r="975" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A975" s="52"/>
-    </row>
-    <row r="976" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A976" s="52"/>
-    </row>
-    <row r="977" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A977" s="52"/>
-    </row>
-    <row r="978" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A978" s="52"/>
-    </row>
-    <row r="979" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A979" s="52"/>
-    </row>
-    <row r="980" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A980" s="52"/>
-    </row>
-    <row r="981" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A981" s="52"/>
-    </row>
-    <row r="982" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A982" s="52"/>
-    </row>
-    <row r="983" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A983" s="52"/>
-    </row>
-    <row r="984" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A984" s="52"/>
-    </row>
-    <row r="985" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A985" s="52"/>
-    </row>
-    <row r="986" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A986" s="52"/>
-    </row>
-    <row r="987" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A987" s="52"/>
-    </row>
-    <row r="988" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A988" s="52"/>
-    </row>
-    <row r="989" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A989" s="52"/>
-    </row>
-    <row r="990" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A990" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A14:F14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F9"/>
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -49085,16 +49115,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D2" s="51">
         <v>0</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
@@ -49141,23 +49171,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="71" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="70">
+    <row r="5" spans="1:26" s="69" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="68">
         <v>100</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="68">
         <v>278</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="68">
         <v>226</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="68">
         <v>390</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="68">
         <v>85</v>
       </c>
     </row>
@@ -49202,48 +49232,48 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="68">
         <v>0</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="68">
         <v>0</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="64">
         <v>1</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="64">
         <v>1</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="68">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="74">
         <v>0</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="68">
         <v>0</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="66">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="66">
         <v>0.13900000000000001</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="68">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -49263,7 +49293,7 @@
     </row>
     <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B11" s="62">
         <v>0</v>
@@ -49283,7 +49313,7 @@
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B12" s="62">
         <v>0</v>
@@ -49303,7 +49333,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B13" s="62">
         <v>0</v>
@@ -49323,7 +49353,7 @@
     </row>
     <row r="14" spans="1:26" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
@@ -52273,7 +52303,7 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F14"/>
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -52374,7 +52404,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -52402,22 +52432,22 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="66">
+      <c r="A5" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="65">
         <v>1667</v>
       </c>
-      <c r="C5" s="63">
-        <v>4946</v>
-      </c>
-      <c r="D5" s="66">
+      <c r="C5" s="65">
+        <v>5032</v>
+      </c>
+      <c r="D5" s="65">
         <v>3535</v>
       </c>
-      <c r="E5" s="63">
-        <v>6495</v>
-      </c>
-      <c r="F5" s="66">
+      <c r="E5" s="65">
+        <v>6581</v>
+      </c>
+      <c r="F5" s="65">
         <v>999</v>
       </c>
     </row>
@@ -52462,48 +52492,48 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>224</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="64">
         <v>224</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="64">
         <v>268</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="64">
         <v>268</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="66">
         <v>31.7</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="66">
         <v>38.1</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="66">
         <v>31.7</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="66">
         <v>38.1</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -52523,7 +52553,7 @@
     </row>
     <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B11" s="62">
         <v>0</v>
@@ -52543,7 +52573,7 @@
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B12" s="62">
         <v>0</v>
@@ -52563,7 +52593,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B13" s="62">
         <v>0</v>
@@ -52583,7 +52613,7 @@
     </row>
     <row r="14" spans="1:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>

--- a/src/dams_mcda/www/DecisionMatrices_updated.xlsx
+++ b/src/dams_mcda/www/DecisionMatrices_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma\Documents\R_ELF\R_NEST\MCDA_App_Shiny\MCDA_11042019\src\dams_mcda\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0948AB-AB12-47E7-A9FD-AB41D89416AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3DE4C2-F1FA-4B2C-B531-B1B0C9324334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="396" windowWidth="17280" windowHeight="8964" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="10" r:id="rId1"/>
@@ -448,9 +448,6 @@
     <t>Aesthetic Value †</t>
   </si>
   <si>
-    <t xml:space="preserve">*1 GW = 1000 MW, so to convert from GW to MW, multiply the value by 1,000. To convert from MW to GW, divide by 1,000. °Indigenous cultural traditions and lifeways data come from a survey of a sample of Penobscot Nation citizens (N=2), supported by researcher observations of informal conversations with Penobscot Nation citizens and representatives. †Cells are blank because we do not have data for these decision criteria. </t>
-  </si>
-  <si>
     <t>Adjusted for inflation using: https://www.calculator.net/inflation-calculator.html?cstartingamount1=1&amp;cinyear1=2014&amp;coutyear1=2019&amp;calctype=1&amp;x=124&amp;y=20</t>
   </si>
   <si>
@@ -578,6 +575,9 @@
   </si>
   <si>
     <t>B. Blachly and E. Uchida, Estimating the Marginal Cost of Dam Removal, in Environmental and Natural Resource Economics Working Papers, 2017, vol. Paper 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*1 GW = 1000 MW, so to convert from GW to MW, multiply the value by 1,000. To convert from MW to GW, divide by 1,000. °Indigenous cultural traditions and lifeways data come from a survey of a sample of Penobscot Nation citizens (N=2), supported by researcher observations of informal conversations with Penobscot Nation citizens and representatives. †Cells are zero because we do not have data for these decision criteria. </t>
   </si>
 </sst>
 </file>
@@ -1043,9 +1043,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1057,6 +1054,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1710,7 +1710,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1725,7 +1725,7 @@
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="75"/>
@@ -1735,17 +1735,17 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1758,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2068,14 +2068,14 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="A14" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
@@ -5021,7 +5021,7 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G19" sqref="G19"/>
     </sheetView>
@@ -5033,7 +5033,7 @@
     <col min="3" max="3" width="12.44140625" style="11" customWidth="1"/>
     <col min="4" max="4" width="48.77734375" style="11" customWidth="1"/>
     <col min="5" max="5" width="49" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="79"/>
+    <col min="6" max="6" width="14.44140625" style="78"/>
     <col min="8" max="8" width="47.6640625" style="11" customWidth="1"/>
     <col min="9" max="16384" width="14.44140625" style="11"/>
   </cols>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="2" spans="1:26" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>96</v>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="D2"/>
       <c r="E2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>14</v>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="D4"/>
       <c r="E4" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
@@ -5213,7 +5213,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>93</v>
@@ -5224,14 +5224,14 @@
       <c r="E5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="78" t="s">
-        <v>156</v>
+      <c r="F5" s="77" t="s">
+        <v>155</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -5257,7 +5257,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>93</v>
@@ -5266,16 +5266,16 @@
         <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="77" t="s">
-        <v>156</v>
+      <c r="G6" s="76" t="s">
+        <v>155</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -5301,25 +5301,25 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>156</v>
+        <v>142</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>155</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -5345,25 +5345,25 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="77" t="s">
-        <v>156</v>
+      <c r="G8" s="76" t="s">
+        <v>155</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5389,7 +5389,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>93</v>
@@ -5407,7 +5407,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -5526,7 +5526,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>48</v>
@@ -5565,10 +5565,10 @@
         <v>93</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="60" t="s">
         <v>151</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>152</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>50</v>
@@ -5612,7 +5612,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>52</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="16" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>43</v>
@@ -5700,7 +5700,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>52</v>
@@ -5823,22 +5823,22 @@
         <v>60</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>132</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="81" t="s">
-        <v>157</v>
+      <c r="G19" s="80" t="s">
+        <v>156</v>
       </c>
       <c r="H19" s="41" t="s">
         <v>100</v>
@@ -5867,7 +5867,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>94</v>
@@ -5911,7 +5911,7 @@
         <v>64</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>94</v>
@@ -5955,7 +5955,7 @@
         <v>67</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>94</v>
@@ -5999,7 +5999,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>94</v>
@@ -6010,8 +6010,8 @@
       <c r="E23" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="80" t="s">
-        <v>156</v>
+      <c r="F23" s="79" t="s">
+        <v>155</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>73</v>
@@ -33632,9 +33632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:F13"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33943,14 +33943,14 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="A14" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -34941,8 +34941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F13"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -35251,14 +35251,14 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="A14" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
@@ -38201,8 +38201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F13"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -38507,14 +38507,14 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="A14" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
@@ -41457,8 +41457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F13"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -41767,14 +41767,14 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="A14" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
@@ -44717,8 +44717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F13"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -45027,14 +45027,14 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="A14" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
@@ -47977,8 +47977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A13" sqref="A2:A13"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -48287,14 +48287,14 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="A14" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
@@ -51238,8 +51238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F13"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -51548,14 +51548,14 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="A14" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
